--- a/sofascore_team_data/Bundesliga_Team_Stats.xlsx
+++ b/sofascore_team_data/Bundesliga_Team_Stats.xlsx
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" t="n">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="Q2" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="R2" t="n">
         <v>11</v>
@@ -1208,109 +1208,109 @@
         <v>22</v>
       </c>
       <c r="T2" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U2" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="V2" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X2" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y2" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AB2" t="n">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="AC2" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>68</v>
+        <v>67.380952380952</v>
       </c>
       <c r="AI2" t="n">
-        <v>14394</v>
+        <v>14869</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12996</v>
+        <v>13423</v>
       </c>
       <c r="AK2" t="n">
-        <v>90.287619841601</v>
+        <v>90.27506893536901</v>
       </c>
       <c r="AL2" t="n">
-        <v>5380</v>
+        <v>5527</v>
       </c>
       <c r="AM2" t="n">
-        <v>5048</v>
+        <v>5184</v>
       </c>
       <c r="AN2" t="n">
-        <v>93.828996282528</v>
+        <v>93.794101682649</v>
       </c>
       <c r="AO2" t="n">
-        <v>9014</v>
+        <v>9342</v>
       </c>
       <c r="AP2" t="n">
-        <v>7948</v>
+        <v>8239</v>
       </c>
       <c r="AQ2" t="n">
-        <v>88.17395163079701</v>
+        <v>88.193106401199</v>
       </c>
       <c r="AR2" t="n">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="AS2" t="n">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="AT2" t="n">
-        <v>66.619115549215</v>
+        <v>66.80272108843501</v>
       </c>
       <c r="AU2" t="n">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AW2" t="n">
-        <v>20.743034055728</v>
+        <v>21.574344023324</v>
       </c>
       <c r="AX2" t="n">
         <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AZ2" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="BA2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BB2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -1322,52 +1322,52 @@
         <v>1</v>
       </c>
       <c r="BF2" t="n">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="BG2" t="n">
         <v>2</v>
       </c>
       <c r="BH2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI2" t="n">
-        <v>1633</v>
+        <v>1742</v>
       </c>
       <c r="BJ2" t="n">
-        <v>774</v>
+        <v>835</v>
       </c>
       <c r="BK2" t="n">
-        <v>47.39742804654</v>
+        <v>47.933409873708</v>
       </c>
       <c r="BL2" t="n">
-        <v>1234</v>
+        <v>1317</v>
       </c>
       <c r="BM2" t="n">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="BN2" t="n">
-        <v>46.191247974068</v>
+        <v>46.697038724374</v>
       </c>
       <c r="BO2" t="n">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="BP2" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="BQ2" t="n">
-        <v>51.127819548872</v>
+        <v>51.764705882353</v>
       </c>
       <c r="BR2" t="n">
-        <v>2422</v>
+        <v>2526</v>
       </c>
       <c r="BS2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BT2" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="BU2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1376,130 +1376,130 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>7.1133986928105</v>
+        <v>7.1282608695652</v>
       </c>
       <c r="BY2" t="n">
-        <v>904</v>
+        <v>959</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1846</v>
+        <v>1937</v>
       </c>
       <c r="CA2" t="n">
-        <v>3270</v>
+        <v>3503</v>
       </c>
       <c r="CB2" t="n">
-        <v>5116</v>
+        <v>5440</v>
       </c>
       <c r="CC2" t="n">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="n">
         <v>30</v>
       </c>
-      <c r="CD2" t="n">
-        <v>24</v>
-      </c>
       <c r="CE2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CF2" t="n">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="CG2" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="CH2" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="CI2" t="n">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="CJ2" t="n">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="CK2" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="CL2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CM2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CO2" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="CP2" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="CQ2" t="n">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="CR2" t="n">
-        <v>1041</v>
+        <v>1099</v>
       </c>
       <c r="CS2" t="n">
         <v>36</v>
       </c>
       <c r="CT2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CU2" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="CV2" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CW2" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="CX2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CY2" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="CZ2" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="DA2" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="DB2" t="n">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="DC2" t="n">
-        <v>1508</v>
+        <v>1599</v>
       </c>
       <c r="DD2" t="n">
-        <v>2848</v>
+        <v>2992</v>
       </c>
       <c r="DE2" t="n">
-        <v>3734</v>
+        <v>3988</v>
       </c>
       <c r="DF2" t="n">
-        <v>6582</v>
+        <v>6980</v>
       </c>
       <c r="DG2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DH2" t="n">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="DI2" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1023</v>
+        <v>1085</v>
       </c>
       <c r="DK2" t="n">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="DL2" t="n">
         <v>48956</v>
       </c>
       <c r="DM2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="DQ2" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="DR2" t="n">
         <v>0.9</v>
       </c>
       <c r="DS2" t="n">
-        <v>18.9</v>
+        <v>19.29</v>
       </c>
       <c r="DT2" t="n">
-        <v>8.6</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.3</v>
+        <v>6.38</v>
       </c>
       <c r="DV2" t="n">
-        <v>9.25</v>
+        <v>9.33</v>
       </c>
       <c r="DW2" t="n">
         <v>1.9</v>
@@ -1539,46 +1539,46 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="EC2" t="n">
-        <v>649.8</v>
+        <v>639.1900000000001</v>
       </c>
       <c r="ED2" t="n">
-        <v>11.9</v>
+        <v>12.19</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.75</v>
+        <v>7.81</v>
       </c>
       <c r="EF2" t="n">
-        <v>16.75</v>
+        <v>17</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="EH2" t="n">
-        <v>38.7</v>
+        <v>39.76</v>
       </c>
       <c r="EI2" t="n">
-        <v>28.5</v>
+        <v>29.29</v>
       </c>
       <c r="EJ2" t="n">
-        <v>10.2</v>
+        <v>10.48</v>
       </c>
       <c r="EK2" t="n">
-        <v>121.1</v>
+        <v>120.29</v>
       </c>
       <c r="EL2" t="n">
-        <v>8.550000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2032,22 +2032,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -2062,316 +2062,316 @@
         <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
         <v>6</v>
       </c>
       <c r="P4" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q4" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="n">
         <v>8</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
         <v>25</v>
       </c>
       <c r="U4" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y4" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA4" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AB4" t="n">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AC4" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
         <v>5</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>53.25</v>
+        <v>52.857142857143</v>
       </c>
       <c r="AI4" t="n">
-        <v>9300</v>
+        <v>9698</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7458</v>
+        <v>7782</v>
       </c>
       <c r="AK4" t="n">
-        <v>80.193548387097</v>
+        <v>80.243349144153</v>
       </c>
       <c r="AL4" t="n">
-        <v>4298</v>
+        <v>4552</v>
       </c>
       <c r="AM4" t="n">
-        <v>3883</v>
+        <v>4116</v>
       </c>
       <c r="AN4" t="n">
-        <v>90.344346207538</v>
+        <v>90.421792618629</v>
       </c>
       <c r="AO4" t="n">
-        <v>5002</v>
+        <v>5146</v>
       </c>
       <c r="AP4" t="n">
-        <v>3575</v>
+        <v>3666</v>
       </c>
       <c r="AQ4" t="n">
-        <v>71.47141143542601</v>
+        <v>71.239797901283</v>
       </c>
       <c r="AR4" t="n">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="AS4" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AT4" t="n">
-        <v>43.270440251572</v>
+        <v>43.206854345165</v>
       </c>
       <c r="AU4" t="n">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="AV4" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AW4" t="n">
-        <v>28.693181818182</v>
+        <v>28.610354223433</v>
       </c>
       <c r="AX4" t="n">
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="AZ4" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BA4" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>686</v>
+      </c>
+      <c r="BG4" t="n">
         <v>3</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>664</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>2</v>
       </c>
       <c r="BH4" t="n">
         <v>2</v>
       </c>
       <c r="BI4" t="n">
-        <v>2072</v>
+        <v>2181</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1002</v>
+        <v>1050</v>
       </c>
       <c r="BK4" t="n">
-        <v>48.359073359073</v>
+        <v>48.143053645117</v>
       </c>
       <c r="BL4" t="n">
-        <v>1300</v>
+        <v>1383</v>
       </c>
       <c r="BM4" t="n">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="BN4" t="n">
-        <v>46.615384615385</v>
+        <v>46.565437454808</v>
       </c>
       <c r="BO4" t="n">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="BP4" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="BQ4" t="n">
-        <v>51.295336787565</v>
+        <v>50.877192982456</v>
       </c>
       <c r="BR4" t="n">
-        <v>2870</v>
+        <v>2994</v>
       </c>
       <c r="BS4" t="n">
         <v>38</v>
       </c>
       <c r="BT4" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="BU4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BV4" t="n">
         <v>0</v>
       </c>
       <c r="BW4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.8691803278689</v>
+        <v>6.8398753894081</v>
       </c>
       <c r="BY4" t="n">
-        <v>1376</v>
+        <v>1539</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2732</v>
+        <v>3023</v>
       </c>
       <c r="CA4" t="n">
-        <v>3564</v>
+        <v>3700</v>
       </c>
       <c r="CB4" t="n">
-        <v>6296</v>
+        <v>6723</v>
       </c>
       <c r="CC4" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="CD4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="CE4" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="CF4" t="n">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="CG4" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="CH4" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="CI4" t="n">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="CJ4" t="n">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="CK4" t="n">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="CL4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM4" t="n">
         <v>6</v>
       </c>
       <c r="CN4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO4" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="CP4" t="n">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="CQ4" t="n">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="CR4" t="n">
-        <v>1317</v>
+        <v>1362</v>
       </c>
       <c r="CS4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CT4" t="n">
         <v>2</v>
       </c>
       <c r="CU4" t="n">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="CV4" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CW4" t="n">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="CX4" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="CY4" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="CZ4" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="DA4" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DB4" t="n">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="DC4" t="n">
-        <v>2110</v>
+        <v>2301</v>
       </c>
       <c r="DD4" t="n">
-        <v>4012</v>
+        <v>4340</v>
       </c>
       <c r="DE4" t="n">
-        <v>4131</v>
+        <v>4278</v>
       </c>
       <c r="DF4" t="n">
-        <v>8143</v>
+        <v>8618</v>
       </c>
       <c r="DG4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DH4" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="DI4" t="n">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1026</v>
+        <v>1080</v>
       </c>
       <c r="DK4" t="n">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="DL4" t="n">
         <v>48995</v>
       </c>
       <c r="DM4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN4" t="n">
         <v>0</v>
@@ -2387,80 +2387,80 @@
         </is>
       </c>
       <c r="DQ4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="DS4" t="n">
-        <v>12.9</v>
+        <v>12.71</v>
       </c>
       <c r="DT4" t="n">
-        <v>4.9</v>
+        <v>4.86</v>
       </c>
       <c r="DU4" t="n">
-        <v>5.05</v>
+        <v>4.95</v>
       </c>
       <c r="DV4" t="n">
-        <v>14.65</v>
+        <v>14.38</v>
       </c>
       <c r="DW4" t="n">
         <v>2</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="DY4" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="EC4" t="n">
-        <v>372.9</v>
+        <v>370.57</v>
       </c>
       <c r="ED4" t="n">
-        <v>15.8</v>
+        <v>15.95</v>
       </c>
       <c r="EE4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="EF4" t="n">
-        <v>33.2</v>
+        <v>32.67</v>
       </c>
       <c r="EG4" t="n">
-        <v>2.9</v>
+        <v>3.14</v>
       </c>
       <c r="EH4" t="n">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="EI4" t="n">
-        <v>30.3</v>
+        <v>30.67</v>
       </c>
       <c r="EJ4" t="n">
-        <v>19.8</v>
+        <v>19.33</v>
       </c>
       <c r="EK4" t="n">
-        <v>143.5</v>
+        <v>142.57</v>
       </c>
       <c r="EL4" t="n">
-        <v>5.4</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2677</v>
+        <v>36360</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2471,340 +2471,340 @@
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
         <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" t="n">
         <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="Q5" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>70</v>
+      </c>
+      <c r="V5" t="n">
+        <v>52</v>
+      </c>
+      <c r="W5" t="n">
+        <v>46</v>
+      </c>
+      <c r="X5" t="n">
+        <v>118</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>123</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>99</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>233</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>457</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>111</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>52.857142857143</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10603</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8981</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>84.70244270489501</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5371</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>4883</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>90.914168683672</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5232</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>4098</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>78.325688073395</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>765</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>369</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>48.235294117647</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>318</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>82</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>25.786163522013</v>
+      </c>
+      <c r="AX5" t="n">
         <v>9</v>
       </c>
-      <c r="T5" t="n">
-        <v>24</v>
-      </c>
-      <c r="U5" t="n">
-        <v>56</v>
-      </c>
-      <c r="V5" t="n">
-        <v>45</v>
-      </c>
-      <c r="W5" t="n">
-        <v>38</v>
-      </c>
-      <c r="X5" t="n">
-        <v>122</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>79</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>123</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>238</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AY5" t="n">
+        <v>326</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>190</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>610</v>
+      </c>
+      <c r="BG5" t="n">
         <v>3</v>
       </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>57.809523809524</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>10951</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9259</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>84.54935622317601</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>4566</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>4141</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>90.69207183530401</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6385</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>5118</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>80.156617071261</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>638</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>47.021943573668</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>414</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>106</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>25.6038647343</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>298</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>189</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>64</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>534</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>2</v>
-      </c>
       <c r="BH5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI5" t="n">
-        <v>1926</v>
+        <v>2075</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1034</v>
+        <v>1051</v>
       </c>
       <c r="BK5" t="n">
-        <v>53.686396677051</v>
+        <v>50.650602409639</v>
       </c>
       <c r="BL5" t="n">
-        <v>1249</v>
+        <v>1496</v>
       </c>
       <c r="BM5" t="n">
-        <v>667</v>
+        <v>766</v>
       </c>
       <c r="BN5" t="n">
-        <v>53.402722177742</v>
+        <v>51.20320855615</v>
       </c>
       <c r="BO5" t="n">
-        <v>677</v>
+        <v>579</v>
       </c>
       <c r="BP5" t="n">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="BQ5" t="n">
-        <v>54.209748892171</v>
+        <v>49.222797927461</v>
       </c>
       <c r="BR5" t="n">
-        <v>2742</v>
+        <v>2778</v>
       </c>
       <c r="BS5" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="BT5" t="n">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="BU5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BV5" t="n">
         <v>0</v>
       </c>
       <c r="BW5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>6.9019169329073</v>
+        <v>6.9578431372549</v>
       </c>
       <c r="BY5" t="n">
-        <v>1428</v>
+        <v>1693</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2747</v>
+        <v>3621</v>
       </c>
       <c r="CA5" t="n">
-        <v>3424</v>
+        <v>4113</v>
       </c>
       <c r="CB5" t="n">
-        <v>6171</v>
+        <v>7734</v>
       </c>
       <c r="CC5" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="CD5" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="CE5" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CF5" t="n">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="CG5" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="CH5" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="CI5" t="n">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="CJ5" t="n">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="CK5" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="CL5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CN5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO5" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="CP5" t="n">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="CQ5" t="n">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="CR5" t="n">
-        <v>1289</v>
+        <v>1110</v>
       </c>
       <c r="CS5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="CT5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CV5" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CW5" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="CX5" t="n">
+        <v>82</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>96</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>83</v>
+      </c>
+      <c r="DA5" t="n">
         <v>78</v>
       </c>
-      <c r="CY5" t="n">
-        <v>97</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>92</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>77</v>
-      </c>
       <c r="DB5" t="n">
-        <v>289</v>
+        <v>417</v>
       </c>
       <c r="DC5" t="n">
-        <v>2223</v>
+        <v>2505</v>
       </c>
       <c r="DD5" t="n">
-        <v>4066</v>
+        <v>4927</v>
       </c>
       <c r="DE5" t="n">
-        <v>3915</v>
+        <v>4534</v>
       </c>
       <c r="DF5" t="n">
-        <v>7981</v>
+        <v>9461</v>
       </c>
       <c r="DG5" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="DH5" t="n">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="DI5" t="n">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1018</v>
+        <v>1075</v>
       </c>
       <c r="DK5" t="n">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="DL5" t="n">
-        <v>48997</v>
+        <v>48957</v>
       </c>
       <c r="DM5" t="n">
         <v>21</v>
@@ -2823,80 +2823,80 @@
         </is>
       </c>
       <c r="DQ5" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="DR5" t="n">
         <v>1.33</v>
       </c>
       <c r="DS5" t="n">
-        <v>15.1</v>
+        <v>16.19</v>
       </c>
       <c r="DT5" t="n">
-        <v>5.81</v>
+        <v>5.62</v>
       </c>
       <c r="DU5" t="n">
-        <v>5.52</v>
+        <v>5.29</v>
       </c>
       <c r="DV5" t="n">
-        <v>9.949999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="EB5" t="n">
         <v>0.05</v>
       </c>
-      <c r="DY5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0.14</v>
-      </c>
       <c r="EC5" t="n">
-        <v>440.9</v>
+        <v>427.67</v>
       </c>
       <c r="ED5" t="n">
-        <v>14.19</v>
+        <v>15.52</v>
       </c>
       <c r="EE5" t="n">
-        <v>9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="EF5" t="n">
-        <v>25.43</v>
+        <v>29.05</v>
       </c>
       <c r="EG5" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="EH5" t="n">
-        <v>49.24</v>
+        <v>50.05</v>
       </c>
       <c r="EI5" t="n">
-        <v>31.76</v>
+        <v>36.48</v>
       </c>
       <c r="EJ5" t="n">
-        <v>17.48</v>
+        <v>13.57</v>
       </c>
       <c r="EK5" t="n">
-        <v>130.57</v>
+        <v>132.29</v>
       </c>
       <c r="EL5" t="n">
-        <v>5.86</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bayer 04 Leverkusen</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2904,346 +2904,346 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>31</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>110</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>24</v>
+      </c>
+      <c r="U6" t="n">
+        <v>56</v>
+      </c>
+      <c r="V6" t="n">
+        <v>45</v>
+      </c>
+      <c r="W6" t="n">
+        <v>38</v>
+      </c>
+      <c r="X6" t="n">
+        <v>122</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>116</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>123</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>238</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
         <v>2</v>
       </c>
-      <c r="M6" t="n">
-        <v>12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>34</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>169</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>106</v>
-      </c>
-      <c r="R6" t="n">
-        <v>6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>70</v>
-      </c>
-      <c r="V6" t="n">
-        <v>49</v>
-      </c>
-      <c r="W6" t="n">
-        <v>41</v>
-      </c>
-      <c r="X6" t="n">
-        <v>92</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>147</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>326</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>99</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>31</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>6</v>
-      </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>59.05</v>
+        <v>57.809523809524</v>
       </c>
       <c r="AI6" t="n">
-        <v>12427</v>
+        <v>10950</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11020</v>
+        <v>9258</v>
       </c>
       <c r="AK6" t="n">
-        <v>88.677878812264</v>
+        <v>84.547945205479</v>
       </c>
       <c r="AL6" t="n">
-        <v>6004</v>
+        <v>4566</v>
       </c>
       <c r="AM6" t="n">
-        <v>5564</v>
+        <v>4141</v>
       </c>
       <c r="AN6" t="n">
-        <v>92.671552298468</v>
+        <v>90.69207183530401</v>
       </c>
       <c r="AO6" t="n">
-        <v>6423</v>
+        <v>6384</v>
       </c>
       <c r="AP6" t="n">
-        <v>5456</v>
+        <v>5117</v>
       </c>
       <c r="AQ6" t="n">
-        <v>84.944729877005</v>
+        <v>80.15350877193001</v>
       </c>
       <c r="AR6" t="n">
-        <v>708</v>
+        <v>637</v>
       </c>
       <c r="AS6" t="n">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="AT6" t="n">
-        <v>55.367231638418</v>
+        <v>46.938775510204</v>
       </c>
       <c r="AU6" t="n">
-        <v>293</v>
+        <v>415</v>
       </c>
       <c r="AV6" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="AW6" t="n">
-        <v>20.819112627986</v>
+        <v>25.78313253012</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="AZ6" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="BA6" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="BB6" t="n">
         <v>3</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>534</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1034</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>53.686396677051</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1249</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>667</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>53.402722177742</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>677</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>367</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>54.209748892171</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>2742</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>209</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>6.9019169329073</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1428</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>2747</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>3424</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>6171</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>45</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>29</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>589</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>88</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>70</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>308</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>232</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>100</v>
+      </c>
+      <c r="CL6" t="n">
         <v>3</v>
       </c>
-      <c r="BE6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>438</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1679</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>887</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>52.829064919595</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>630</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>52.023121387283</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>468</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>257</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>54.91452991453</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>2329</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>24</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>179</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>6.9138709677419</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>1702</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>3315</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>3592</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>6907</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>43</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>31</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>439</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>95</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>75</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>327</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>195</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>85</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>8</v>
-      </c>
       <c r="CM6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="CN6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO6" t="n">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="CP6" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="CQ6" t="n">
-        <v>426</v>
+        <v>524</v>
       </c>
       <c r="CR6" t="n">
-        <v>974</v>
+        <v>1289</v>
       </c>
       <c r="CS6" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="CT6" t="n">
         <v>3</v>
       </c>
       <c r="CU6" t="n">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="CV6" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="CW6" t="n">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="CX6" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="CY6" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="CZ6" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="DA6" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="DB6" t="n">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="DC6" t="n">
-        <v>2386</v>
+        <v>2223</v>
       </c>
       <c r="DD6" t="n">
-        <v>4377</v>
+        <v>4066</v>
       </c>
       <c r="DE6" t="n">
-        <v>3991</v>
+        <v>3915</v>
       </c>
       <c r="DF6" t="n">
-        <v>8368</v>
+        <v>7981</v>
       </c>
       <c r="DG6" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="DH6" t="n">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="DI6" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="DJ6" t="n">
-        <v>968</v>
+        <v>1018</v>
       </c>
       <c r="DK6" t="n">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="DL6" t="n">
-        <v>48994</v>
+        <v>48997</v>
       </c>
       <c r="DM6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
@@ -3259,80 +3259,80 @@
         </is>
       </c>
       <c r="DQ6" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="DS6" t="n">
-        <v>13.75</v>
+        <v>15.1</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.6</v>
+        <v>5.81</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.95</v>
+        <v>5.52</v>
       </c>
       <c r="DV6" t="n">
-        <v>8.949999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="DZ6" t="n">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.55</v>
+        <v>0.19</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="EC6" t="n">
-        <v>551</v>
+        <v>440.86</v>
       </c>
       <c r="ED6" t="n">
-        <v>13.6</v>
+        <v>14.19</v>
       </c>
       <c r="EE6" t="n">
-        <v>7.95</v>
+        <v>9</v>
       </c>
       <c r="EF6" t="n">
-        <v>21.9</v>
+        <v>25.43</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="EH6" t="n">
-        <v>44.35</v>
+        <v>49.24</v>
       </c>
       <c r="EI6" t="n">
-        <v>31.5</v>
+        <v>31.76</v>
       </c>
       <c r="EJ6" t="n">
-        <v>12.85</v>
+        <v>17.48</v>
       </c>
       <c r="EK6" t="n">
-        <v>116.45</v>
+        <v>130.57</v>
       </c>
       <c r="EL6" t="n">
-        <v>7.35</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36360</v>
+        <v>2681</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3343,268 +3343,268 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
         <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>106</v>
+      </c>
+      <c r="R7" t="n">
         <v>6</v>
       </c>
-      <c r="P7" t="n">
-        <v>224</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>97</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U7" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="V7" t="n">
         <v>48</v>
       </c>
       <c r="W7" t="n">
+        <v>40</v>
+      </c>
+      <c r="X7" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>111</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>147</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>326</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>59.05</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12427</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11020</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>88.677878812264</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6004</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5564</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>92.671552298468</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6423</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5456</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>84.944729877005</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>708</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>392</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>55.367231638418</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>293</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>61</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>20.819112627986</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>272</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>159</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>72</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>438</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1679</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>887</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>52.829064919595</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1211</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>630</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>52.023121387283</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>468</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>257</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>54.91452991453</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2329</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>24</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>179</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>6.9138709677419</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1702</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>3315</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>3592</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>6907</v>
+      </c>
+      <c r="CC7" t="n">
         <v>43</v>
       </c>
-      <c r="X7" t="n">
-        <v>114</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>91</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>217</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>429</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>108</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="CD7" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>439</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>95</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>75</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>327</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>195</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>85</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM7" t="n">
         <v>13</v>
       </c>
-      <c r="AE7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10172</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8629</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>84.830908375934</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>5158</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>4694</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>91.004265219077</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5014</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>3935</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>78.480255285201</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>729</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>354</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>48.559670781893</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>308</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>25.324675324675</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>307</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>183</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>561</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1947</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>984</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>50.539291217257</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>1415</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>724</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>51.166077738516</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>532</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>260</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>48.872180451128</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>2639</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>30</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>181</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>26</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>6.9501718213058</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>1631</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>3497</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>3988</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>7485</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>48</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>43</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>30</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>523</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>93</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>74</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>349</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>262</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>125</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>5</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>8</v>
-      </c>
       <c r="CN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CO7" t="n">
         <v>191</v>
@@ -3613,70 +3613,70 @@
         <v>190</v>
       </c>
       <c r="CQ7" t="n">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="CR7" t="n">
-        <v>1049</v>
+        <v>974</v>
       </c>
       <c r="CS7" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU7" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="CV7" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="CW7" t="n">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="CX7" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="CY7" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CZ7" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="DA7" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="DB7" t="n">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="DC7" t="n">
-        <v>2402</v>
+        <v>2386</v>
       </c>
       <c r="DD7" t="n">
-        <v>4729</v>
+        <v>4377</v>
       </c>
       <c r="DE7" t="n">
-        <v>4391</v>
+        <v>3991</v>
       </c>
       <c r="DF7" t="n">
-        <v>9120</v>
+        <v>8368</v>
       </c>
       <c r="DG7" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="DH7" t="n">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="DI7" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1031</v>
+        <v>968</v>
       </c>
       <c r="DK7" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="DL7" t="n">
-        <v>48957</v>
+        <v>48994</v>
       </c>
       <c r="DM7" t="n">
         <v>20</v>
@@ -3695,70 +3695,70 @@
         </is>
       </c>
       <c r="DQ7" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="DR7" t="n">
         <v>1.35</v>
       </c>
       <c r="DS7" t="n">
-        <v>16.05</v>
+        <v>13.75</v>
       </c>
       <c r="DT7" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="DU7" t="n">
-        <v>5.4</v>
+        <v>4.95</v>
       </c>
       <c r="DV7" t="n">
-        <v>9.050000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="DW7" t="n">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DY7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="EC7" t="n">
-        <v>431.45</v>
+        <v>551</v>
       </c>
       <c r="ED7" t="n">
-        <v>15.35</v>
+        <v>13.6</v>
       </c>
       <c r="EE7" t="n">
-        <v>9.15</v>
+        <v>7.95</v>
       </c>
       <c r="EF7" t="n">
-        <v>28.05</v>
+        <v>21.9</v>
       </c>
       <c r="EG7" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="EH7" t="n">
-        <v>49.2</v>
+        <v>44.35</v>
       </c>
       <c r="EI7" t="n">
-        <v>36.2</v>
+        <v>31.5</v>
       </c>
       <c r="EJ7" t="n">
-        <v>13</v>
+        <v>12.85</v>
       </c>
       <c r="EK7" t="n">
-        <v>131.95</v>
+        <v>116.45</v>
       </c>
       <c r="EL7" t="n">
-        <v>10.85</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="8">
@@ -4443,13 +4443,13 @@
         <v>7552</v>
       </c>
       <c r="CC9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CD9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CE9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CF9" t="n">
         <v>630</v>
@@ -4699,13 +4699,13 @@
         <v>15</v>
       </c>
       <c r="U10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X10" t="n">
         <v>75</v>
@@ -5027,10 +5027,10 @@
         <v>0.1</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="EA10" t="n">
         <v>0.38</v>
@@ -5084,22 +5084,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -5114,13 +5114,13 @@
         <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q11" t="n">
         <v>93</v>
@@ -5132,112 +5132,112 @@
         <v>6</v>
       </c>
       <c r="T11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V11" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X11" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AB11" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="AC11" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AD11" t="n">
         <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH11" t="n">
-        <v>47.55</v>
+        <v>47.47619047619</v>
       </c>
       <c r="AI11" t="n">
-        <v>8362</v>
+        <v>8703</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6799</v>
+        <v>7048</v>
       </c>
       <c r="AK11" t="n">
-        <v>81.308299449892</v>
+        <v>80.98356888429301</v>
       </c>
       <c r="AL11" t="n">
-        <v>4131</v>
+        <v>4274</v>
       </c>
       <c r="AM11" t="n">
-        <v>3732</v>
+        <v>3857</v>
       </c>
       <c r="AN11" t="n">
-        <v>90.341321713871</v>
+        <v>90.243331773514</v>
       </c>
       <c r="AO11" t="n">
-        <v>4231</v>
+        <v>4429</v>
       </c>
       <c r="AP11" t="n">
-        <v>3067</v>
+        <v>3191</v>
       </c>
       <c r="AQ11" t="n">
-        <v>72.488773339636</v>
+        <v>72.04786633551601</v>
       </c>
       <c r="AR11" t="n">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="AS11" t="n">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AT11" t="n">
-        <v>43.213728549142</v>
+        <v>42.771982116244</v>
       </c>
       <c r="AU11" t="n">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="AV11" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AW11" t="n">
-        <v>27.586206896552</v>
+        <v>27.611940298507</v>
       </c>
       <c r="AX11" t="n">
         <v>3</v>
       </c>
       <c r="AY11" t="n">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="AZ11" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="BA11" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BB11" t="n">
         <v>2</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>5</v>
@@ -5246,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="BF11" t="n">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="BG11" t="n">
         <v>2</v>
@@ -5255,43 +5255,43 @@
         <v>2</v>
       </c>
       <c r="BI11" t="n">
-        <v>1833</v>
+        <v>1961</v>
       </c>
       <c r="BJ11" t="n">
-        <v>955</v>
+        <v>1016</v>
       </c>
       <c r="BK11" t="n">
-        <v>52.100381887616</v>
+        <v>51.810300866905</v>
       </c>
       <c r="BL11" t="n">
-        <v>1114</v>
+        <v>1195</v>
       </c>
       <c r="BM11" t="n">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="BN11" t="n">
-        <v>51.436265709156</v>
+        <v>51.213389121339</v>
       </c>
       <c r="BO11" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="BP11" t="n">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="BQ11" t="n">
-        <v>53.129346314325</v>
+        <v>52.741514360313</v>
       </c>
       <c r="BR11" t="n">
-        <v>2552</v>
+        <v>2709</v>
       </c>
       <c r="BS11" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BT11" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="BU11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
@@ -5300,130 +5300,130 @@
         <v>1</v>
       </c>
       <c r="BX11" t="n">
-        <v>6.8253918495298</v>
+        <v>6.8215568862275</v>
       </c>
       <c r="BY11" t="n">
-        <v>1850</v>
+        <v>1927</v>
       </c>
       <c r="BZ11" t="n">
-        <v>3715</v>
+        <v>3878</v>
       </c>
       <c r="CA11" t="n">
-        <v>3949</v>
+        <v>4138</v>
       </c>
       <c r="CB11" t="n">
-        <v>7664</v>
+        <v>8016</v>
       </c>
       <c r="CC11" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="CD11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="CE11" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CF11" t="n">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="CG11" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CH11" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="CI11" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="CJ11" t="n">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="CK11" t="n">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CL11" t="n">
         <v>5</v>
       </c>
       <c r="CM11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CN11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CO11" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="CP11" t="n">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="CQ11" t="n">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="CR11" t="n">
-        <v>1022</v>
+        <v>1069</v>
       </c>
       <c r="CS11" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CT11" t="n">
         <v>4</v>
       </c>
       <c r="CU11" t="n">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="CV11" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="CW11" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="CX11" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="CY11" t="n">
+        <v>110</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>103</v>
       </c>
-      <c r="CZ11" t="n">
-        <v>99</v>
-      </c>
       <c r="DA11" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="DB11" t="n">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="DC11" t="n">
-        <v>2669</v>
+        <v>2781</v>
       </c>
       <c r="DD11" t="n">
-        <v>4922</v>
+        <v>5140</v>
       </c>
       <c r="DE11" t="n">
-        <v>4291</v>
+        <v>4504</v>
       </c>
       <c r="DF11" t="n">
-        <v>9213</v>
+        <v>9644</v>
       </c>
       <c r="DG11" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="DH11" t="n">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="DI11" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="DJ11" t="n">
-        <v>830</v>
+        <v>885</v>
       </c>
       <c r="DK11" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="DL11" t="n">
         <v>49205</v>
       </c>
       <c r="DM11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
@@ -5439,70 +5439,70 @@
         </is>
       </c>
       <c r="DQ11" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="DS11" t="n">
-        <v>13.55</v>
+        <v>13.38</v>
       </c>
       <c r="DT11" t="n">
-        <v>4.6</v>
+        <v>4.52</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.15</v>
+        <v>4.14</v>
       </c>
       <c r="DV11" t="n">
-        <v>8.4</v>
+        <v>8.33</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="DX11" t="n">
         <v>0.05</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EB11" t="n">
         <v>0.05</v>
       </c>
       <c r="EC11" t="n">
-        <v>339.95</v>
+        <v>335.62</v>
       </c>
       <c r="ED11" t="n">
-        <v>14.2</v>
+        <v>14.52</v>
       </c>
       <c r="EE11" t="n">
-        <v>7.75</v>
+        <v>7.67</v>
       </c>
       <c r="EF11" t="n">
-        <v>29.95</v>
+        <v>30.1</v>
       </c>
       <c r="EG11" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="EH11" t="n">
-        <v>47.75</v>
+        <v>48.38</v>
       </c>
       <c r="EI11" t="n">
-        <v>28.65</v>
+        <v>29.14</v>
       </c>
       <c r="EJ11" t="n">
-        <v>19.1</v>
+        <v>19.24</v>
       </c>
       <c r="EK11" t="n">
-        <v>127.6</v>
+        <v>129</v>
       </c>
       <c r="EL11" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12">
@@ -6187,13 +6187,13 @@
         <v>9972</v>
       </c>
       <c r="CC13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CD13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CE13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CF13" t="n">
         <v>501</v>
@@ -6214,7 +6214,7 @@
         <v>146</v>
       </c>
       <c r="CL13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM13" t="n">
         <v>6</v>
@@ -6443,13 +6443,13 @@
         <v>10</v>
       </c>
       <c r="U14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
         <v>91</v>
@@ -6771,10 +6771,10 @@
         <v>0.05</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="EA14" t="n">
         <v>0.38</v>
@@ -7059,13 +7059,13 @@
         <v>8122</v>
       </c>
       <c r="CC15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CD15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CE15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CF15" t="n">
         <v>786</v>
@@ -8355,16 +8355,16 @@
         <v>6.6967426710098</v>
       </c>
       <c r="BY18" t="n">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="BZ18" t="n">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="CA18" t="n">
         <v>5295</v>
       </c>
       <c r="CB18" t="n">
-        <v>9620</v>
+        <v>9619</v>
       </c>
       <c r="CC18" t="n">
         <v>63</v>
@@ -8382,10 +8382,10 @@
         <v>102</v>
       </c>
       <c r="CH18" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CI18" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CJ18" t="n">
         <v>322</v>
@@ -8400,7 +8400,7 @@
         <v>5</v>
       </c>
       <c r="CN18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CO18" t="n">
         <v>183</v>
@@ -8409,10 +8409,10 @@
         <v>170</v>
       </c>
       <c r="CQ18" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CR18" t="n">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="CS18" t="n">
         <v>46</v>
@@ -8445,16 +8445,16 @@
         <v>257</v>
       </c>
       <c r="DC18" t="n">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="DD18" t="n">
-        <v>5671</v>
+        <v>5670</v>
       </c>
       <c r="DE18" t="n">
         <v>5716</v>
       </c>
       <c r="DF18" t="n">
-        <v>11387</v>
+        <v>11386</v>
       </c>
       <c r="DG18" t="n">
         <v>39</v>

--- a/sofascore_team_data/Bundesliga_Team_Stats.xlsx
+++ b/sofascore_team_data/Bundesliga_Team_Stats.xlsx
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>79</v>
@@ -1515,70 +1515,70 @@
         </is>
       </c>
       <c r="DQ2" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="DS2" t="n">
-        <v>19.29</v>
+        <v>18.41</v>
       </c>
       <c r="DT2" t="n">
-        <v>8.859999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.38</v>
+        <v>6.09</v>
       </c>
       <c r="DV2" t="n">
-        <v>9.33</v>
+        <v>8.91</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="DX2" t="n">
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>5.1</v>
+        <v>4.86</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="EC2" t="n">
-        <v>639.1900000000001</v>
+        <v>610.14</v>
       </c>
       <c r="ED2" t="n">
-        <v>12.19</v>
+        <v>11.64</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.81</v>
+        <v>7.45</v>
       </c>
       <c r="EF2" t="n">
-        <v>17</v>
+        <v>16.23</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="EH2" t="n">
-        <v>39.76</v>
+        <v>37.95</v>
       </c>
       <c r="EI2" t="n">
-        <v>29.29</v>
+        <v>27.95</v>
       </c>
       <c r="EJ2" t="n">
-        <v>10.48</v>
+        <v>10</v>
       </c>
       <c r="EK2" t="n">
-        <v>120.29</v>
+        <v>114.82</v>
       </c>
       <c r="EL2" t="n">
-        <v>9</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="3">
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
@@ -1608,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -1626,19 +1626,19 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q3" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="R3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S3" t="n">
         <v>11</v>
@@ -1647,31 +1647,31 @@
         <v>25</v>
       </c>
       <c r="U3" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="V3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X3" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Y3" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Z3" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AB3" t="n">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="AC3" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AD3" t="n">
         <v>5</v>
@@ -1686,64 +1686,64 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>53.904761904762</v>
+        <v>53.954545454545</v>
       </c>
       <c r="AI3" t="n">
-        <v>10535</v>
+        <v>11042</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8893</v>
+        <v>9315</v>
       </c>
       <c r="AK3" t="n">
-        <v>84.41385856668199</v>
+        <v>84.359717442492</v>
       </c>
       <c r="AL3" t="n">
-        <v>4459</v>
+        <v>4727</v>
       </c>
       <c r="AM3" t="n">
-        <v>4069</v>
+        <v>4324</v>
       </c>
       <c r="AN3" t="n">
-        <v>91.25364431486901</v>
+        <v>91.47450814470101</v>
       </c>
       <c r="AO3" t="n">
-        <v>6076</v>
+        <v>6315</v>
       </c>
       <c r="AP3" t="n">
-        <v>4824</v>
+        <v>4991</v>
       </c>
       <c r="AQ3" t="n">
-        <v>79.394338380514</v>
+        <v>79.034045922407</v>
       </c>
       <c r="AR3" t="n">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="AS3" t="n">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="AT3" t="n">
-        <v>52.777777777778</v>
+        <v>52.212389380531</v>
       </c>
       <c r="AU3" t="n">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="AV3" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AW3" t="n">
-        <v>24.494949494949</v>
+        <v>24.761904761905</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AZ3" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="BB3" t="n">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="BF3" t="n">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
@@ -1767,43 +1767,43 @@
         <v>8</v>
       </c>
       <c r="BI3" t="n">
-        <v>1992</v>
+        <v>2075</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1003</v>
+        <v>1042</v>
       </c>
       <c r="BK3" t="n">
-        <v>50.35140562249</v>
+        <v>50.21686746988</v>
       </c>
       <c r="BL3" t="n">
-        <v>1385</v>
+        <v>1435</v>
       </c>
       <c r="BM3" t="n">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="BN3" t="n">
-        <v>48.953068592058</v>
+        <v>48.850174216028</v>
       </c>
       <c r="BO3" t="n">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="BP3" t="n">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="BQ3" t="n">
-        <v>53.542009884679</v>
+        <v>53.28125</v>
       </c>
       <c r="BR3" t="n">
-        <v>2799</v>
+        <v>2940</v>
       </c>
       <c r="BS3" t="n">
         <v>25</v>
       </c>
       <c r="BT3" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="BU3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
@@ -1812,130 +1812,130 @@
         <v>2</v>
       </c>
       <c r="BX3" t="n">
-        <v>6.9602605863192</v>
+        <v>6.9786377708978</v>
       </c>
       <c r="BY3" t="n">
-        <v>1452</v>
+        <v>1512</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3075</v>
+        <v>3209</v>
       </c>
       <c r="CA3" t="n">
-        <v>4114</v>
+        <v>4328</v>
       </c>
       <c r="CB3" t="n">
-        <v>7189</v>
+        <v>7537</v>
       </c>
       <c r="CC3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CD3" t="n">
+        <v>33</v>
+      </c>
+      <c r="CE3" t="n">
         <v>32</v>
       </c>
-      <c r="CE3" t="n">
-        <v>30</v>
-      </c>
       <c r="CF3" t="n">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="CG3" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="CH3" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="CI3" t="n">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="CK3" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CL3" t="n">
         <v>3</v>
       </c>
       <c r="CM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CN3" t="n">
         <v>9</v>
       </c>
       <c r="CO3" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="CP3" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="CQ3" t="n">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="CR3" t="n">
-        <v>1220</v>
+        <v>1269</v>
       </c>
       <c r="CS3" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="CT3" t="n">
         <v>2</v>
       </c>
       <c r="CU3" t="n">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="CV3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CW3" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="CX3" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CY3" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CZ3" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="DA3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="DB3" t="n">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="DC3" t="n">
-        <v>2188</v>
+        <v>2283</v>
       </c>
       <c r="DD3" t="n">
-        <v>4274</v>
+        <v>4463</v>
       </c>
       <c r="DE3" t="n">
-        <v>4633</v>
+        <v>4876</v>
       </c>
       <c r="DF3" t="n">
-        <v>8907</v>
+        <v>9339</v>
       </c>
       <c r="DG3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="DH3" t="n">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="DI3" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1057</v>
+        <v>1101</v>
       </c>
       <c r="DK3" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="DL3" t="n">
         <v>49074</v>
       </c>
       <c r="DM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -1951,70 +1951,70 @@
         </is>
       </c>
       <c r="DQ3" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="DS3" t="n">
-        <v>13.19</v>
+        <v>13.23</v>
       </c>
       <c r="DT3" t="n">
-        <v>4.76</v>
+        <v>4.91</v>
       </c>
       <c r="DU3" t="n">
-        <v>5.38</v>
+        <v>5.45</v>
       </c>
       <c r="DV3" t="n">
-        <v>11.52</v>
+        <v>11.45</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="DY3" t="n">
-        <v>2.71</v>
+        <v>2.82</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="EC3" t="n">
-        <v>423.48</v>
+        <v>423.41</v>
       </c>
       <c r="ED3" t="n">
-        <v>14.29</v>
+        <v>14</v>
       </c>
       <c r="EE3" t="n">
-        <v>8.140000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="EF3" t="n">
-        <v>24.76</v>
+        <v>24.45</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="EH3" t="n">
-        <v>47.76</v>
+        <v>47.36</v>
       </c>
       <c r="EI3" t="n">
-        <v>32.29</v>
+        <v>31.86</v>
       </c>
       <c r="EJ3" t="n">
-        <v>15.48</v>
+        <v>15.5</v>
       </c>
       <c r="EK3" t="n">
-        <v>133.29</v>
+        <v>133.64</v>
       </c>
       <c r="EL3" t="n">
-        <v>8.19</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="4">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
         <v>44</v>
@@ -2387,80 +2387,80 @@
         </is>
       </c>
       <c r="DQ4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="DS4" t="n">
-        <v>12.71</v>
+        <v>12.14</v>
       </c>
       <c r="DT4" t="n">
-        <v>4.86</v>
+        <v>4.64</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.95</v>
+        <v>4.73</v>
       </c>
       <c r="DV4" t="n">
-        <v>14.38</v>
+        <v>13.73</v>
       </c>
       <c r="DW4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="EC4" t="n">
-        <v>370.57</v>
+        <v>353.73</v>
       </c>
       <c r="ED4" t="n">
-        <v>15.95</v>
+        <v>15.23</v>
       </c>
       <c r="EE4" t="n">
-        <v>8.1</v>
+        <v>7.73</v>
       </c>
       <c r="EF4" t="n">
-        <v>32.67</v>
+        <v>31.18</v>
       </c>
       <c r="EG4" t="n">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="EH4" t="n">
-        <v>50</v>
+        <v>47.73</v>
       </c>
       <c r="EI4" t="n">
-        <v>30.67</v>
+        <v>29.27</v>
       </c>
       <c r="EJ4" t="n">
-        <v>19.33</v>
+        <v>18.45</v>
       </c>
       <c r="EK4" t="n">
-        <v>142.57</v>
+        <v>136.09</v>
       </c>
       <c r="EL4" t="n">
-        <v>5.52</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36360</v>
+        <v>2681</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2471,343 +2471,343 @@
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
       <c r="M5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="Q5" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="R5" t="n">
         <v>6</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
       </c>
       <c r="U5" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V5" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W5" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="X5" t="n">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="Y5" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Z5" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>147</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>326</v>
+      </c>
+      <c r="AC5" t="n">
         <v>99</v>
       </c>
-      <c r="AA5" t="n">
-        <v>233</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>457</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>111</v>
-      </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>52.857142857143</v>
+        <v>59.05</v>
       </c>
       <c r="AI5" t="n">
-        <v>10603</v>
+        <v>12427</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8981</v>
+        <v>11020</v>
       </c>
       <c r="AK5" t="n">
-        <v>84.70244270489501</v>
+        <v>88.677878812264</v>
       </c>
       <c r="AL5" t="n">
-        <v>5371</v>
+        <v>6004</v>
       </c>
       <c r="AM5" t="n">
-        <v>4883</v>
+        <v>5564</v>
       </c>
       <c r="AN5" t="n">
-        <v>90.914168683672</v>
+        <v>92.671552298468</v>
       </c>
       <c r="AO5" t="n">
-        <v>5232</v>
+        <v>6423</v>
       </c>
       <c r="AP5" t="n">
-        <v>4098</v>
+        <v>5456</v>
       </c>
       <c r="AQ5" t="n">
-        <v>78.325688073395</v>
+        <v>84.944729877005</v>
       </c>
       <c r="AR5" t="n">
-        <v>765</v>
+        <v>708</v>
       </c>
       <c r="AS5" t="n">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="AT5" t="n">
-        <v>48.235294117647</v>
+        <v>55.367231638418</v>
       </c>
       <c r="AU5" t="n">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="AV5" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AW5" t="n">
-        <v>25.786163522013</v>
+        <v>20.819112627986</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="AZ5" t="n">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="BA5" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="BB5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC5" t="n">
         <v>14</v>
       </c>
       <c r="BD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>438</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1679</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>887</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>52.829064919595</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1211</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>630</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>52.023121387283</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>468</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>257</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>54.91452991453</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>2329</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>24</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>179</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV5" t="n">
         <v>2</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BW5" t="n">
         <v>2</v>
       </c>
-      <c r="BF5" t="n">
-        <v>610</v>
-      </c>
-      <c r="BG5" t="n">
+      <c r="BX5" t="n">
+        <v>6.9138709677419</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1702</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>3315</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>3592</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>6907</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>43</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>439</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>95</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>75</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>327</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>195</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>85</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>13</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>191</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>190</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>426</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>974</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>22</v>
+      </c>
+      <c r="CT5" t="n">
         <v>3</v>
       </c>
-      <c r="BH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>2075</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>1051</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>50.650602409639</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>1496</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>766</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>51.20320855615</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>579</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>285</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>49.222797927461</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>2778</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>33</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>194</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>30</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>6.9578431372549</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>1693</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>3621</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>4113</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>7734</v>
-      </c>
-      <c r="CC5" t="n">
+      <c r="CU5" t="n">
+        <v>243</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>52</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>154</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>89</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>93</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>98</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>52</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>327</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>2386</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>4377</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>3991</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>8368</v>
+      </c>
+      <c r="DG5" t="n">
         <v>51</v>
       </c>
-      <c r="CD5" t="n">
-        <v>46</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>33</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>556</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>97</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>81</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>374</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>277</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>131</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>5</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>9</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>197</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>199</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>503</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>1110</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>51</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>257</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>79</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>175</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>82</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>96</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>83</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>78</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>417</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>2505</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>4927</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>4534</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>9461</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>41</v>
-      </c>
       <c r="DH5" t="n">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="DI5" t="n">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1075</v>
+        <v>968</v>
       </c>
       <c r="DK5" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="DL5" t="n">
-        <v>48957</v>
+        <v>48994</v>
       </c>
       <c r="DM5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -2823,80 +2823,80 @@
         </is>
       </c>
       <c r="DQ5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="DZ5" t="n">
         <v>1.9</v>
       </c>
-      <c r="DR5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>2.19</v>
-      </c>
       <c r="EA5" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="EC5" t="n">
-        <v>427.67</v>
+        <v>524.76</v>
       </c>
       <c r="ED5" t="n">
-        <v>15.52</v>
+        <v>12.95</v>
       </c>
       <c r="EE5" t="n">
-        <v>9.050000000000001</v>
+        <v>7.57</v>
       </c>
       <c r="EF5" t="n">
-        <v>29.05</v>
+        <v>20.86</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.48</v>
+        <v>3.43</v>
       </c>
       <c r="EH5" t="n">
-        <v>50.05</v>
+        <v>42.24</v>
       </c>
       <c r="EI5" t="n">
-        <v>36.48</v>
+        <v>30</v>
       </c>
       <c r="EJ5" t="n">
-        <v>13.57</v>
+        <v>12.24</v>
       </c>
       <c r="EK5" t="n">
-        <v>132.29</v>
+        <v>110.9</v>
       </c>
       <c r="EL5" t="n">
-        <v>11.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2677</v>
+        <v>36360</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2907,340 +2907,340 @@
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O6" t="n">
         <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="Q6" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>70</v>
+      </c>
+      <c r="V6" t="n">
+        <v>52</v>
+      </c>
+      <c r="W6" t="n">
+        <v>46</v>
+      </c>
+      <c r="X6" t="n">
+        <v>118</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>123</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>99</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>233</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>457</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>111</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>52.857142857143</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10603</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8981</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>84.70244270489501</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>5371</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4883</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>90.914168683672</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5232</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4098</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>78.325688073395</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>765</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>369</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>48.235294117647</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>318</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>82</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>25.786163522013</v>
+      </c>
+      <c r="AX6" t="n">
         <v>9</v>
       </c>
-      <c r="T6" t="n">
-        <v>24</v>
-      </c>
-      <c r="U6" t="n">
-        <v>56</v>
-      </c>
-      <c r="V6" t="n">
-        <v>45</v>
-      </c>
-      <c r="W6" t="n">
-        <v>38</v>
-      </c>
-      <c r="X6" t="n">
-        <v>122</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>123</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>238</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AY6" t="n">
+        <v>326</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>190</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD6" t="n">
         <v>2</v>
       </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>57.809523809524</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10950</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9258</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>84.547945205479</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>4566</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>4141</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>90.69207183530401</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6384</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>5117</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>80.15350877193001</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>637</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>299</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>46.938775510204</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>415</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>107</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>25.78313253012</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>298</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>189</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>64</v>
-      </c>
-      <c r="BB6" t="n">
+      <c r="BE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>610</v>
+      </c>
+      <c r="BG6" t="n">
         <v>3</v>
       </c>
-      <c r="BC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>534</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>2</v>
-      </c>
       <c r="BH6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI6" t="n">
-        <v>1926</v>
+        <v>2075</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1034</v>
+        <v>1051</v>
       </c>
       <c r="BK6" t="n">
-        <v>53.686396677051</v>
+        <v>50.650602409639</v>
       </c>
       <c r="BL6" t="n">
-        <v>1249</v>
+        <v>1496</v>
       </c>
       <c r="BM6" t="n">
-        <v>667</v>
+        <v>766</v>
       </c>
       <c r="BN6" t="n">
-        <v>53.402722177742</v>
+        <v>51.20320855615</v>
       </c>
       <c r="BO6" t="n">
-        <v>677</v>
+        <v>579</v>
       </c>
       <c r="BP6" t="n">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="BQ6" t="n">
-        <v>54.209748892171</v>
+        <v>49.222797927461</v>
       </c>
       <c r="BR6" t="n">
-        <v>2742</v>
+        <v>2778</v>
       </c>
       <c r="BS6" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="BT6" t="n">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="BU6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
       </c>
       <c r="BW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>6.9019169329073</v>
+        <v>6.9578431372549</v>
       </c>
       <c r="BY6" t="n">
-        <v>1428</v>
+        <v>1693</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2747</v>
+        <v>3621</v>
       </c>
       <c r="CA6" t="n">
-        <v>3424</v>
+        <v>4113</v>
       </c>
       <c r="CB6" t="n">
-        <v>6171</v>
+        <v>7734</v>
       </c>
       <c r="CC6" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="CD6" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="CE6" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CF6" t="n">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="CG6" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="CH6" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="CI6" t="n">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="CJ6" t="n">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="CK6" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="CL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CN6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO6" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="CP6" t="n">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="CQ6" t="n">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="CR6" t="n">
-        <v>1289</v>
+        <v>1110</v>
       </c>
       <c r="CS6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="CT6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CV6" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CW6" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="CX6" t="n">
+        <v>82</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>96</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>83</v>
+      </c>
+      <c r="DA6" t="n">
         <v>78</v>
       </c>
-      <c r="CY6" t="n">
-        <v>97</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>92</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>77</v>
-      </c>
       <c r="DB6" t="n">
-        <v>289</v>
+        <v>417</v>
       </c>
       <c r="DC6" t="n">
-        <v>2223</v>
+        <v>2505</v>
       </c>
       <c r="DD6" t="n">
-        <v>4066</v>
+        <v>4927</v>
       </c>
       <c r="DE6" t="n">
-        <v>3915</v>
+        <v>4534</v>
       </c>
       <c r="DF6" t="n">
-        <v>7981</v>
+        <v>9461</v>
       </c>
       <c r="DG6" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="DH6" t="n">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="DI6" t="n">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1018</v>
+        <v>1075</v>
       </c>
       <c r="DK6" t="n">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="DL6" t="n">
-        <v>48997</v>
+        <v>48957</v>
       </c>
       <c r="DM6" t="n">
         <v>21</v>
@@ -3259,80 +3259,80 @@
         </is>
       </c>
       <c r="DQ6" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="DR6" t="n">
         <v>1.33</v>
       </c>
       <c r="DS6" t="n">
-        <v>15.1</v>
+        <v>16.19</v>
       </c>
       <c r="DT6" t="n">
-        <v>5.81</v>
+        <v>5.62</v>
       </c>
       <c r="DU6" t="n">
-        <v>5.52</v>
+        <v>5.29</v>
       </c>
       <c r="DV6" t="n">
-        <v>9.949999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="EB6" t="n">
         <v>0.05</v>
       </c>
-      <c r="DY6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0.14</v>
-      </c>
       <c r="EC6" t="n">
-        <v>440.86</v>
+        <v>427.67</v>
       </c>
       <c r="ED6" t="n">
-        <v>14.19</v>
+        <v>15.52</v>
       </c>
       <c r="EE6" t="n">
-        <v>9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="EF6" t="n">
-        <v>25.43</v>
+        <v>29.05</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="EH6" t="n">
-        <v>49.24</v>
+        <v>50.05</v>
       </c>
       <c r="EI6" t="n">
-        <v>31.76</v>
+        <v>36.48</v>
       </c>
       <c r="EJ6" t="n">
-        <v>17.48</v>
+        <v>13.57</v>
       </c>
       <c r="EK6" t="n">
-        <v>130.57</v>
+        <v>132.29</v>
       </c>
       <c r="EL6" t="n">
-        <v>5.86</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bayer 04 Leverkusen</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3340,346 +3340,346 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>31</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>110</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>56</v>
+      </c>
+      <c r="V7" t="n">
+        <v>45</v>
+      </c>
+      <c r="W7" t="n">
+        <v>38</v>
+      </c>
+      <c r="X7" t="n">
+        <v>122</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>116</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>123</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>238</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
         <v>2</v>
       </c>
-      <c r="M7" t="n">
-        <v>12</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="AG7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>57.809523809524</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10950</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9258</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>84.547945205479</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4566</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4141</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>90.69207183530401</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6384</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5117</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>80.15350877193001</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>637</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>299</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>46.938775510204</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>415</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>107</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>25.78313253012</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>298</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>189</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>64</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>534</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1926</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1034</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>53.686396677051</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1249</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>667</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>53.402722177742</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>677</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>367</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>54.209748892171</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2742</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>209</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>6.9019169329073</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1428</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>2747</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>3424</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>6171</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>45</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>29</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>589</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>88</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>70</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>308</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>232</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>100</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>224</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>182</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>524</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1289</v>
+      </c>
+      <c r="CS7" t="n">
         <v>34</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>169</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>106</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>14</v>
-      </c>
-      <c r="T7" t="n">
-        <v>18</v>
-      </c>
-      <c r="U7" t="n">
-        <v>69</v>
-      </c>
-      <c r="V7" t="n">
-        <v>48</v>
-      </c>
-      <c r="W7" t="n">
-        <v>40</v>
-      </c>
-      <c r="X7" t="n">
-        <v>92</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>147</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>326</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>99</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>31</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>59.05</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12427</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11020</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>88.677878812264</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>6004</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>5564</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>92.671552298468</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6423</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>5456</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>84.944729877005</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>708</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>392</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>55.367231638418</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>293</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>61</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>20.819112627986</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>272</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>159</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>72</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>438</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1679</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>887</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>52.829064919595</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>1211</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>630</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>52.023121387283</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>468</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>257</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>54.91452991453</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>2329</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>179</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>6.9138709677419</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>1702</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>3315</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>3592</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>6907</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>43</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>31</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>439</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>95</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>75</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>327</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>195</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>85</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>8</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>13</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>191</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>190</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>426</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>974</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>22</v>
       </c>
       <c r="CT7" t="n">
         <v>3</v>
       </c>
       <c r="CU7" t="n">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="CV7" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="CW7" t="n">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="CX7" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="CY7" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="CZ7" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="DA7" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="DB7" t="n">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="DC7" t="n">
-        <v>2386</v>
+        <v>2223</v>
       </c>
       <c r="DD7" t="n">
-        <v>4377</v>
+        <v>4066</v>
       </c>
       <c r="DE7" t="n">
-        <v>3991</v>
+        <v>3915</v>
       </c>
       <c r="DF7" t="n">
-        <v>8368</v>
+        <v>7981</v>
       </c>
       <c r="DG7" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="DH7" t="n">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="DI7" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="DJ7" t="n">
-        <v>968</v>
+        <v>1018</v>
       </c>
       <c r="DK7" t="n">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="DL7" t="n">
-        <v>48994</v>
+        <v>48997</v>
       </c>
       <c r="DM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN7" t="n">
         <v>0</v>
@@ -3695,80 +3695,80 @@
         </is>
       </c>
       <c r="DQ7" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="DS7" t="n">
-        <v>13.75</v>
+        <v>15.1</v>
       </c>
       <c r="DT7" t="n">
-        <v>4.6</v>
+        <v>5.81</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.95</v>
+        <v>5.52</v>
       </c>
       <c r="DV7" t="n">
-        <v>8.949999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="DW7" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="DY7" t="n">
-        <v>3.45</v>
+        <v>2.67</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.55</v>
+        <v>0.19</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="EC7" t="n">
-        <v>551</v>
+        <v>440.86</v>
       </c>
       <c r="ED7" t="n">
-        <v>13.6</v>
+        <v>14.19</v>
       </c>
       <c r="EE7" t="n">
-        <v>7.95</v>
+        <v>9</v>
       </c>
       <c r="EF7" t="n">
-        <v>21.9</v>
+        <v>25.43</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="EH7" t="n">
-        <v>44.35</v>
+        <v>49.24</v>
       </c>
       <c r="EI7" t="n">
-        <v>31.5</v>
+        <v>31.76</v>
       </c>
       <c r="EJ7" t="n">
-        <v>12.85</v>
+        <v>17.48</v>
       </c>
       <c r="EK7" t="n">
-        <v>116.45</v>
+        <v>130.57</v>
       </c>
       <c r="EL7" t="n">
-        <v>7.35</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SC Freiburg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2538</v>
+        <v>2674</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3776,343 +3776,343 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>38</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>168</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>75</v>
+      </c>
+      <c r="R8" t="n">
         <v>6</v>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
+        <v>16</v>
+      </c>
+      <c r="T8" t="n">
+        <v>19</v>
+      </c>
+      <c r="U8" t="n">
+        <v>54</v>
+      </c>
+      <c r="V8" t="n">
+        <v>41</v>
+      </c>
+      <c r="W8" t="n">
+        <v>29</v>
+      </c>
+      <c r="X8" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>69</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>131</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>282</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>94</v>
+      </c>
+      <c r="AD8" t="n">
         <v>8</v>
       </c>
-      <c r="N8" t="n">
-        <v>28</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>180</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
         <v>4</v>
       </c>
-      <c r="T8" t="n">
-        <v>24</v>
-      </c>
-      <c r="U8" t="n">
-        <v>44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>31</v>
-      </c>
-      <c r="W8" t="n">
-        <v>25</v>
-      </c>
-      <c r="X8" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>76</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>118</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>266</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>92</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>48.904761904762</v>
+        <v>53</v>
       </c>
       <c r="AI8" t="n">
-        <v>8691</v>
+        <v>10331</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7066</v>
+        <v>8542</v>
       </c>
       <c r="AK8" t="n">
-        <v>81.30249683580701</v>
+        <v>82.68318652599</v>
       </c>
       <c r="AL8" t="n">
-        <v>4112</v>
+        <v>4994</v>
       </c>
       <c r="AM8" t="n">
-        <v>3732</v>
+        <v>4496</v>
       </c>
       <c r="AN8" t="n">
-        <v>90.758754863813</v>
+        <v>90.02803364036799</v>
       </c>
       <c r="AO8" t="n">
-        <v>4579</v>
+        <v>5337</v>
       </c>
       <c r="AP8" t="n">
-        <v>3334</v>
+        <v>4046</v>
       </c>
       <c r="AQ8" t="n">
-        <v>72.810657348766</v>
+        <v>75.8103803635</v>
       </c>
       <c r="AR8" t="n">
-        <v>668</v>
+        <v>789</v>
       </c>
       <c r="AS8" t="n">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="AT8" t="n">
-        <v>47.305389221557</v>
+        <v>46.894803548796</v>
       </c>
       <c r="AU8" t="n">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="AV8" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="AW8" t="n">
-        <v>28.316326530612</v>
+        <v>20.89552238806</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AZ8" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="BA8" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF8" t="n">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="BG8" t="n">
         <v>2</v>
       </c>
       <c r="BH8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI8" t="n">
         <v>2020</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1064</v>
+        <v>951</v>
       </c>
       <c r="BK8" t="n">
-        <v>52.673267326733</v>
+        <v>47.079207920792</v>
       </c>
       <c r="BL8" t="n">
-        <v>1252</v>
+        <v>1368</v>
       </c>
       <c r="BM8" t="n">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="BN8" t="n">
-        <v>53.514376996805</v>
+        <v>48.830409356725</v>
       </c>
       <c r="BO8" t="n">
-        <v>768</v>
+        <v>652</v>
       </c>
       <c r="BP8" t="n">
-        <v>394</v>
+        <v>283</v>
       </c>
       <c r="BQ8" t="n">
-        <v>51.302083333333</v>
+        <v>43.40490797546</v>
       </c>
       <c r="BR8" t="n">
-        <v>2707</v>
+        <v>2875</v>
       </c>
       <c r="BS8" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="BT8" t="n">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="BU8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BV8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX8" t="n">
-        <v>6.7826219512195</v>
+        <v>6.7051829268293</v>
       </c>
       <c r="BY8" t="n">
-        <v>1824</v>
+        <v>1710</v>
       </c>
       <c r="BZ8" t="n">
-        <v>3757</v>
+        <v>3615</v>
       </c>
       <c r="CA8" t="n">
-        <v>3812</v>
+        <v>3937</v>
       </c>
       <c r="CB8" t="n">
-        <v>7569</v>
+        <v>7552</v>
       </c>
       <c r="CC8" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="CD8" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="CE8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="CF8" t="n">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="CG8" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="CH8" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="CI8" t="n">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="CJ8" t="n">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="CK8" t="n">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="CL8" t="n">
         <v>4</v>
       </c>
       <c r="CM8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CN8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="CO8" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="CP8" t="n">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="CQ8" t="n">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="CR8" t="n">
-        <v>1076</v>
+        <v>1136</v>
       </c>
       <c r="CS8" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="CT8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CU8" t="n">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="CV8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="CW8" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="CX8" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="CY8" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CZ8" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="DA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="DB8" t="n">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="DC8" t="n">
-        <v>2593</v>
+        <v>2531</v>
       </c>
       <c r="DD8" t="n">
-        <v>4994</v>
+        <v>4895</v>
       </c>
       <c r="DE8" t="n">
-        <v>4223</v>
+        <v>4399</v>
       </c>
       <c r="DF8" t="n">
-        <v>9217</v>
+        <v>9294</v>
       </c>
       <c r="DG8" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="DH8" t="n">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="DI8" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="DJ8" t="n">
-        <v>899</v>
+        <v>970</v>
       </c>
       <c r="DK8" t="n">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="DL8" t="n">
-        <v>49000</v>
+        <v>48992</v>
       </c>
       <c r="DM8" t="n">
         <v>21</v>
@@ -4131,80 +4131,80 @@
         </is>
       </c>
       <c r="DQ8" t="n">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="DR8" t="n">
-        <v>1.57</v>
+        <v>2.09</v>
       </c>
       <c r="DS8" t="n">
-        <v>12.52</v>
+        <v>11.05</v>
       </c>
       <c r="DT8" t="n">
         <v>4.05</v>
       </c>
       <c r="DU8" t="n">
-        <v>4.38</v>
+        <v>4.27</v>
       </c>
       <c r="DV8" t="n">
-        <v>9.76</v>
+        <v>10.5</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="DX8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="EB8" t="n">
         <v>0.14</v>
       </c>
-      <c r="DY8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.24</v>
-      </c>
       <c r="EC8" t="n">
-        <v>336.48</v>
+        <v>388.27</v>
       </c>
       <c r="ED8" t="n">
-        <v>14.29</v>
+        <v>15.91</v>
       </c>
       <c r="EE8" t="n">
-        <v>9.050000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="EF8" t="n">
-        <v>27.19</v>
+        <v>24.95</v>
       </c>
       <c r="EG8" t="n">
-        <v>2.95</v>
+        <v>2.23</v>
       </c>
       <c r="EH8" t="n">
-        <v>50.67</v>
+        <v>43.23</v>
       </c>
       <c r="EI8" t="n">
-        <v>31.9</v>
+        <v>30.36</v>
       </c>
       <c r="EJ8" t="n">
-        <v>18.76</v>
+        <v>12.86</v>
       </c>
       <c r="EK8" t="n">
-        <v>128.9</v>
+        <v>130.68</v>
       </c>
       <c r="EL8" t="n">
-        <v>5.62</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2674</v>
+        <v>2538</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4212,343 +4212,343 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>83</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>31</v>
+      </c>
+      <c r="W9" t="n">
+        <v>25</v>
+      </c>
+      <c r="X9" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>102</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>118</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>266</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>92</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>48.904761904762</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8691</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7066</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81.30249683580701</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4112</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>3732</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>90.758754863813</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>4579</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3334</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>72.810657348766</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>668</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>316</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>47.305389221557</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>392</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>28.316326530612</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>190</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>38</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>168</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>16</v>
-      </c>
-      <c r="T9" t="n">
-        <v>19</v>
-      </c>
-      <c r="U9" t="n">
-        <v>54</v>
-      </c>
-      <c r="V9" t="n">
-        <v>41</v>
-      </c>
-      <c r="W9" t="n">
-        <v>29</v>
-      </c>
-      <c r="X9" t="n">
-        <v>89</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>69</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>131</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>282</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>94</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>53</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10331</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8542</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>82.68318652599</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>4994</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>4496</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>90.02803364036799</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5337</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>4046</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>75.8103803635</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>789</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>370</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>46.894803548796</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>335</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>20.89552238806</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>350</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>202</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>49</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>3</v>
-      </c>
       <c r="BF9" t="n">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="BG9" t="n">
         <v>2</v>
       </c>
       <c r="BH9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI9" t="n">
         <v>2020</v>
       </c>
       <c r="BJ9" t="n">
-        <v>951</v>
+        <v>1064</v>
       </c>
       <c r="BK9" t="n">
-        <v>47.079207920792</v>
+        <v>52.673267326733</v>
       </c>
       <c r="BL9" t="n">
-        <v>1368</v>
+        <v>1252</v>
       </c>
       <c r="BM9" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="BN9" t="n">
-        <v>48.830409356725</v>
+        <v>53.514376996805</v>
       </c>
       <c r="BO9" t="n">
-        <v>652</v>
+        <v>768</v>
       </c>
       <c r="BP9" t="n">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="BQ9" t="n">
-        <v>43.40490797546</v>
+        <v>51.302083333333</v>
       </c>
       <c r="BR9" t="n">
-        <v>2875</v>
+        <v>2707</v>
       </c>
       <c r="BS9" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="BT9" t="n">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="BU9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BV9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX9" t="n">
-        <v>6.7051829268293</v>
+        <v>6.7826219512195</v>
       </c>
       <c r="BY9" t="n">
-        <v>1710</v>
+        <v>1824</v>
       </c>
       <c r="BZ9" t="n">
-        <v>3615</v>
+        <v>3757</v>
       </c>
       <c r="CA9" t="n">
-        <v>3937</v>
+        <v>3812</v>
       </c>
       <c r="CB9" t="n">
-        <v>7552</v>
+        <v>7569</v>
       </c>
       <c r="CC9" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="CD9" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="CE9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="CF9" t="n">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="CG9" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="CH9" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="CI9" t="n">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="CJ9" t="n">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="CK9" t="n">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="CL9" t="n">
         <v>4</v>
       </c>
       <c r="CM9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CN9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CO9" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="CP9" t="n">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="CQ9" t="n">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="CR9" t="n">
-        <v>1136</v>
+        <v>1076</v>
       </c>
       <c r="CS9" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="CT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CU9" t="n">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="CV9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="CW9" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="CX9" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="CY9" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CZ9" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DA9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="DB9" t="n">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="DC9" t="n">
-        <v>2531</v>
+        <v>2593</v>
       </c>
       <c r="DD9" t="n">
-        <v>4895</v>
+        <v>4994</v>
       </c>
       <c r="DE9" t="n">
-        <v>4399</v>
+        <v>4223</v>
       </c>
       <c r="DF9" t="n">
-        <v>9294</v>
+        <v>9217</v>
       </c>
       <c r="DG9" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="DH9" t="n">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="DI9" t="n">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="DJ9" t="n">
-        <v>970</v>
+        <v>899</v>
       </c>
       <c r="DK9" t="n">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="DL9" t="n">
-        <v>48992</v>
+        <v>49000</v>
       </c>
       <c r="DM9" t="n">
         <v>21</v>
@@ -4567,80 +4567,80 @@
         </is>
       </c>
       <c r="DQ9" t="n">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="DR9" t="n">
-        <v>2.19</v>
+        <v>1.5</v>
       </c>
       <c r="DS9" t="n">
-        <v>11.57</v>
+        <v>11.95</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.24</v>
+        <v>3.86</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.48</v>
+        <v>4.18</v>
       </c>
       <c r="DV9" t="n">
-        <v>11</v>
+        <v>9.32</v>
       </c>
       <c r="DW9" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="EC9" t="n">
-        <v>406.76</v>
+        <v>321.18</v>
       </c>
       <c r="ED9" t="n">
-        <v>16.67</v>
+        <v>13.64</v>
       </c>
       <c r="EE9" t="n">
-        <v>9.619999999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="EF9" t="n">
-        <v>26.14</v>
+        <v>25.95</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.33</v>
+        <v>2.82</v>
       </c>
       <c r="EH9" t="n">
-        <v>45.29</v>
+        <v>48.36</v>
       </c>
       <c r="EI9" t="n">
-        <v>31.81</v>
+        <v>30.45</v>
       </c>
       <c r="EJ9" t="n">
-        <v>13.48</v>
+        <v>17.91</v>
       </c>
       <c r="EK9" t="n">
-        <v>136.9</v>
+        <v>123.05</v>
       </c>
       <c r="EL9" t="n">
-        <v>6.24</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2547</v>
+        <v>2676</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4651,19 +4651,19 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -4675,319 +4675,319 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>177</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>86</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>35</v>
+      </c>
+      <c r="V10" t="n">
+        <v>27</v>
+      </c>
+      <c r="W10" t="n">
+        <v>24</v>
+      </c>
+      <c r="X10" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>99</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>147</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>284</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>77</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8241</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6782</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>82.295837883752</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4571</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>4176</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>91.358564865456</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3670</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2606</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>71.008174386921</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>331</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>47.353361945637</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>357</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>84</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>23.529411764706</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>287</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>161</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="n">
-        <v>23</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="BC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD10" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="n">
-        <v>204</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>69</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="BE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>595</v>
+      </c>
+      <c r="BG10" t="n">
         <v>4</v>
       </c>
-      <c r="S10" t="n">
+      <c r="BH10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1897</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>991</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>52.240379546653</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1305</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>678</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>51.954022988506</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>592</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>313</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>52.871621621622</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>2437</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>44</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>250</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW10" t="n">
         <v>6</v>
       </c>
-      <c r="T10" t="n">
-        <v>15</v>
-      </c>
-      <c r="U10" t="n">
-        <v>48</v>
-      </c>
-      <c r="V10" t="n">
-        <v>28</v>
-      </c>
-      <c r="W10" t="n">
-        <v>33</v>
-      </c>
-      <c r="X10" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>68</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>98</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>223</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>38.952380952381</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6782</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>4875</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>71.88145089944</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>2956</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>2559</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>86.569688768606</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>3826</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>2316</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>60.533193936226</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>912</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>362</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>39.69298245614</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>440</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>28.636363636364</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>327</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>176</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>56</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>633</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>2269</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>1102</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>48.567650947554</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>1329</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>634</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>47.7050413845</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>940</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>468</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>49.787234042553</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>3039</v>
-      </c>
-      <c r="BS10" t="n">
+      <c r="BX10" t="n">
+        <v>6.7853968253968</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1987</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>4521</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>3473</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>7994</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>53</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>41</v>
+      </c>
+      <c r="CE10" t="n">
         <v>31</v>
       </c>
-      <c r="BT10" t="n">
-        <v>276</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>6.7164133738602</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>1772</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>4337</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>4982</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>9319</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>48</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>38</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>29</v>
-      </c>
       <c r="CF10" t="n">
-        <v>719</v>
+        <v>516</v>
       </c>
       <c r="CG10" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="CH10" t="n">
         <v>82</v>
       </c>
       <c r="CI10" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="CJ10" t="n">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="CK10" t="n">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="CL10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CM10" t="n">
         <v>14</v>
       </c>
       <c r="CN10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CO10" t="n">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="CP10" t="n">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="CQ10" t="n">
-        <v>485</v>
+        <v>366</v>
       </c>
       <c r="CR10" t="n">
-        <v>1142</v>
+        <v>919</v>
       </c>
       <c r="CS10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="CT10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CU10" t="n">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="CV10" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="CW10" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="CX10" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="CY10" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="CZ10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="DA10" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="DB10" t="n">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="DC10" t="n">
-        <v>2627</v>
+        <v>2797</v>
       </c>
       <c r="DD10" t="n">
-        <v>5695</v>
+        <v>5735</v>
       </c>
       <c r="DE10" t="n">
-        <v>5480</v>
+        <v>3799</v>
       </c>
       <c r="DF10" t="n">
-        <v>11175</v>
+        <v>9534</v>
       </c>
       <c r="DG10" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="DH10" t="n">
-        <v>429</v>
+        <v>348</v>
       </c>
       <c r="DI10" t="n">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="DJ10" t="n">
-        <v>982</v>
+        <v>877</v>
       </c>
       <c r="DK10" t="n">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="DL10" t="n">
-        <v>48996</v>
+        <v>49293</v>
       </c>
       <c r="DM10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="DN10" t="n">
         <v>0</v>
@@ -5003,80 +5003,80 @@
         </is>
       </c>
       <c r="DQ10" t="n">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="DS10" t="n">
-        <v>13</v>
+        <v>12.52</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.57</v>
+        <v>4.62</v>
       </c>
       <c r="DU10" t="n">
-        <v>5.52</v>
+        <v>3.67</v>
       </c>
       <c r="DV10" t="n">
-        <v>13.14</v>
+        <v>11.9</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="EB10" t="n">
         <v>0.05</v>
       </c>
       <c r="EC10" t="n">
-        <v>232.14</v>
+        <v>322.95</v>
       </c>
       <c r="ED10" t="n">
-        <v>15.57</v>
+        <v>13.67</v>
       </c>
       <c r="EE10" t="n">
-        <v>8.380000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="EF10" t="n">
-        <v>30.14</v>
+        <v>28.33</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="EH10" t="n">
-        <v>52.48</v>
+        <v>47.19</v>
       </c>
       <c r="EI10" t="n">
-        <v>30.19</v>
+        <v>32.29</v>
       </c>
       <c r="EJ10" t="n">
-        <v>22.29</v>
+        <v>14.9</v>
       </c>
       <c r="EK10" t="n">
-        <v>144.71</v>
+        <v>116.05</v>
       </c>
       <c r="EL10" t="n">
-        <v>4.67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2671</v>
+        <v>2547</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5084,343 +5084,343 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
         <v>34</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q11" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
       </c>
       <c r="T11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U11" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V11" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="W11" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X11" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Z11" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AA11" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AB11" t="n">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AC11" t="n">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>38.952380952381</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6782</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4875</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>71.88145089944</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2956</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2559</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>86.569688768606</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3826</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2316</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>60.533193936226</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>912</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>362</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>39.69298245614</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>440</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>28.636363636364</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>327</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>176</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>56</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
         <v>5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>47.47619047619</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>8703</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7048</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>80.98356888429301</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>4274</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>3857</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>90.243331773514</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>4429</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>3191</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>72.04786633551601</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>671</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>287</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>42.771982116244</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>402</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>111</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>27.611940298507</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>305</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>161</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>5</v>
       </c>
       <c r="BE11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF11" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="BG11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI11" t="n">
-        <v>1961</v>
+        <v>2269</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1016</v>
+        <v>1102</v>
       </c>
       <c r="BK11" t="n">
-        <v>51.810300866905</v>
+        <v>48.567650947554</v>
       </c>
       <c r="BL11" t="n">
-        <v>1195</v>
+        <v>1329</v>
       </c>
       <c r="BM11" t="n">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="BN11" t="n">
-        <v>51.213389121339</v>
+        <v>47.7050413845</v>
       </c>
       <c r="BO11" t="n">
-        <v>766</v>
+        <v>940</v>
       </c>
       <c r="BP11" t="n">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="BQ11" t="n">
-        <v>52.741514360313</v>
+        <v>49.787234042553</v>
       </c>
       <c r="BR11" t="n">
-        <v>2709</v>
+        <v>3039</v>
       </c>
       <c r="BS11" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="BT11" t="n">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="BU11" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX11" t="n">
-        <v>6.8215568862275</v>
+        <v>6.7164133738602</v>
       </c>
       <c r="BY11" t="n">
-        <v>1927</v>
+        <v>1772</v>
       </c>
       <c r="BZ11" t="n">
-        <v>3878</v>
+        <v>4337</v>
       </c>
       <c r="CA11" t="n">
-        <v>4138</v>
+        <v>4982</v>
       </c>
       <c r="CB11" t="n">
-        <v>8016</v>
+        <v>9319</v>
       </c>
       <c r="CC11" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="CD11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CE11" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="CF11" t="n">
-        <v>616</v>
+        <v>719</v>
       </c>
       <c r="CG11" t="n">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="CH11" t="n">
+        <v>82</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>359</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>280</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>137</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>14</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO11" t="n">
         <v>123</v>
       </c>
-      <c r="CI11" t="n">
-        <v>421</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>284</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>132</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>5</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>8</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>142</v>
-      </c>
       <c r="CP11" t="n">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="CQ11" t="n">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="CR11" t="n">
-        <v>1069</v>
+        <v>1142</v>
       </c>
       <c r="CS11" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="CT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CU11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="CV11" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="CW11" t="n">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="CX11" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="CY11" t="n">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="CZ11" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="DA11" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="DB11" t="n">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="DC11" t="n">
-        <v>2781</v>
+        <v>2627</v>
       </c>
       <c r="DD11" t="n">
-        <v>5140</v>
+        <v>5695</v>
       </c>
       <c r="DE11" t="n">
-        <v>4504</v>
+        <v>5480</v>
       </c>
       <c r="DF11" t="n">
-        <v>9644</v>
+        <v>11175</v>
       </c>
       <c r="DG11" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DH11" t="n">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="DI11" t="n">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="DJ11" t="n">
-        <v>885</v>
+        <v>982</v>
       </c>
       <c r="DK11" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="DL11" t="n">
-        <v>49205</v>
+        <v>48996</v>
       </c>
       <c r="DM11" t="n">
         <v>21</v>
@@ -5439,80 +5439,80 @@
         </is>
       </c>
       <c r="DQ11" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="DS11" t="n">
-        <v>13.38</v>
+        <v>12.41</v>
       </c>
       <c r="DT11" t="n">
-        <v>4.52</v>
+        <v>3.41</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.14</v>
+        <v>5.27</v>
       </c>
       <c r="DV11" t="n">
-        <v>8.33</v>
+        <v>12.55</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="EB11" t="n">
         <v>0.05</v>
       </c>
       <c r="EC11" t="n">
-        <v>335.62</v>
+        <v>221.59</v>
       </c>
       <c r="ED11" t="n">
-        <v>14.52</v>
+        <v>14.86</v>
       </c>
       <c r="EE11" t="n">
-        <v>7.67</v>
+        <v>8</v>
       </c>
       <c r="EF11" t="n">
-        <v>30.1</v>
+        <v>28.77</v>
       </c>
       <c r="EG11" t="n">
-        <v>3.24</v>
+        <v>2.55</v>
       </c>
       <c r="EH11" t="n">
-        <v>48.38</v>
+        <v>50.09</v>
       </c>
       <c r="EI11" t="n">
-        <v>29.14</v>
+        <v>28.82</v>
       </c>
       <c r="EJ11" t="n">
-        <v>19.24</v>
+        <v>21.27</v>
       </c>
       <c r="EK11" t="n">
-        <v>129</v>
+        <v>138.14</v>
       </c>
       <c r="EL11" t="n">
-        <v>4.9</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2676</v>
+        <v>2671</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5520,85 +5520,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
+        <v>9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>24</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>93</v>
+      </c>
+      <c r="R12" t="n">
         <v>6</v>
       </c>
-      <c r="N12" t="n">
-        <v>21</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>177</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>86</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U12" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="V12" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="W12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="X12" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y12" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="n">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="AB12" t="n">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="AC12" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -5607,259 +5607,259 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>46.6</v>
+        <v>47.47619047619</v>
       </c>
       <c r="AI12" t="n">
-        <v>8241</v>
+        <v>8703</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6782</v>
+        <v>7048</v>
       </c>
       <c r="AK12" t="n">
-        <v>82.295837883752</v>
+        <v>80.98356888429301</v>
       </c>
       <c r="AL12" t="n">
-        <v>4571</v>
+        <v>4274</v>
       </c>
       <c r="AM12" t="n">
-        <v>4176</v>
+        <v>3857</v>
       </c>
       <c r="AN12" t="n">
-        <v>91.358564865456</v>
+        <v>90.243331773514</v>
       </c>
       <c r="AO12" t="n">
-        <v>3670</v>
+        <v>4429</v>
       </c>
       <c r="AP12" t="n">
-        <v>2606</v>
+        <v>3191</v>
       </c>
       <c r="AQ12" t="n">
-        <v>71.008174386921</v>
+        <v>72.04786633551601</v>
       </c>
       <c r="AR12" t="n">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="AS12" t="n">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="AT12" t="n">
-        <v>47.353361945637</v>
+        <v>42.771982116244</v>
       </c>
       <c r="AU12" t="n">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="AV12" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="AW12" t="n">
-        <v>23.529411764706</v>
+        <v>27.611940298507</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="AZ12" t="n">
         <v>161</v>
       </c>
       <c r="BA12" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD12" t="n">
         <v>5</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BE12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>632</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1961</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1016</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>51.810300866905</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1195</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>612</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>51.213389121339</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>766</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>404</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>52.741514360313</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>2709</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>38</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>175</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>35</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>6.8215568862275</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1927</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>3878</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>4138</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>8016</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>58</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>38</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>616</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>125</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>123</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>421</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>284</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>132</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM12" t="n">
         <v>8</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>595</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1897</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>991</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>52.240379546653</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>1305</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>678</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>51.954022988506</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>592</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>313</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>52.871621621622</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>2437</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>44</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>44</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>5</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>6.7853968253968</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>1987</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>4521</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>3473</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>7994</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>53</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>41</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>31</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>516</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>100</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>82</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>351</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>253</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>114</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>2</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>14</v>
       </c>
       <c r="CN12" t="n">
         <v>6</v>
       </c>
       <c r="CO12" t="n">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="CP12" t="n">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="CQ12" t="n">
-        <v>366</v>
+        <v>496</v>
       </c>
       <c r="CR12" t="n">
-        <v>919</v>
+        <v>1069</v>
       </c>
       <c r="CS12" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="CT12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CU12" t="n">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="CV12" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="CW12" t="n">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="CX12" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="CY12" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CZ12" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="DA12" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="DB12" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="DC12" t="n">
-        <v>2797</v>
+        <v>2781</v>
       </c>
       <c r="DD12" t="n">
-        <v>5735</v>
+        <v>5140</v>
       </c>
       <c r="DE12" t="n">
-        <v>3799</v>
+        <v>4504</v>
       </c>
       <c r="DF12" t="n">
-        <v>9534</v>
+        <v>9644</v>
       </c>
       <c r="DG12" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DH12" t="n">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="DI12" t="n">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="DJ12" t="n">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="DK12" t="n">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="DL12" t="n">
-        <v>49293</v>
+        <v>49205</v>
       </c>
       <c r="DM12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN12" t="n">
         <v>0</v>
@@ -5875,70 +5875,70 @@
         </is>
       </c>
       <c r="DQ12" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="DS12" t="n">
-        <v>13.15</v>
+        <v>13.38</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.85</v>
+        <v>4.52</v>
       </c>
       <c r="DU12" t="n">
-        <v>3.85</v>
+        <v>4.14</v>
       </c>
       <c r="DV12" t="n">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.2</v>
+        <v>1.71</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="EB12" t="n">
         <v>0.05</v>
       </c>
       <c r="EC12" t="n">
-        <v>339.1</v>
+        <v>335.62</v>
       </c>
       <c r="ED12" t="n">
-        <v>14.35</v>
+        <v>14.52</v>
       </c>
       <c r="EE12" t="n">
-        <v>8.050000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="EF12" t="n">
-        <v>29.75</v>
+        <v>30.1</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="EH12" t="n">
-        <v>49.55</v>
+        <v>48.38</v>
       </c>
       <c r="EI12" t="n">
-        <v>33.9</v>
+        <v>29.14</v>
       </c>
       <c r="EJ12" t="n">
-        <v>15.65</v>
+        <v>19.24</v>
       </c>
       <c r="EK12" t="n">
-        <v>121.85</v>
+        <v>129</v>
       </c>
       <c r="EL12" t="n">
-        <v>7.35</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="13">
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
         <v>25</v>
@@ -6311,70 +6311,70 @@
         </is>
       </c>
       <c r="DQ13" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="DR13" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="DS13" t="n">
-        <v>10.81</v>
+        <v>10.32</v>
       </c>
       <c r="DT13" t="n">
-        <v>4.14</v>
+        <v>3.95</v>
       </c>
       <c r="DU13" t="n">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
       <c r="DV13" t="n">
-        <v>11.38</v>
+        <v>10.86</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="DX13" t="n">
         <v>0.05</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="EB13" t="n">
         <v>0.14</v>
       </c>
       <c r="EC13" t="n">
-        <v>358.71</v>
+        <v>342.41</v>
       </c>
       <c r="ED13" t="n">
-        <v>18</v>
+        <v>17.18</v>
       </c>
       <c r="EE13" t="n">
-        <v>9.52</v>
+        <v>9.09</v>
       </c>
       <c r="EF13" t="n">
-        <v>32.52</v>
+        <v>31.05</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.81</v>
+        <v>3.64</v>
       </c>
       <c r="EH13" t="n">
-        <v>48.29</v>
+        <v>46.09</v>
       </c>
       <c r="EI13" t="n">
-        <v>33.29</v>
+        <v>31.77</v>
       </c>
       <c r="EJ13" t="n">
-        <v>15</v>
+        <v>14.32</v>
       </c>
       <c r="EK13" t="n">
-        <v>125.9</v>
+        <v>120.18</v>
       </c>
       <c r="EL13" t="n">
-        <v>5.1</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="14">
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -6843,7 +6843,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
@@ -6864,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q15" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R15" t="n">
         <v>3</v>
@@ -6879,109 +6879,109 @@
         <v>19</v>
       </c>
       <c r="U15" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z15" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB15" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AC15" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD15" t="n">
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>2</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>44.666666666667</v>
+        <v>44.681818181818</v>
       </c>
       <c r="AI15" t="n">
-        <v>7824</v>
+        <v>8256</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5805</v>
+        <v>6153</v>
       </c>
       <c r="AK15" t="n">
-        <v>74.194785276074</v>
+        <v>74.52761627907</v>
       </c>
       <c r="AL15" t="n">
-        <v>3204</v>
+        <v>3447</v>
       </c>
       <c r="AM15" t="n">
-        <v>2789</v>
+        <v>3003</v>
       </c>
       <c r="AN15" t="n">
-        <v>87.047440699126</v>
+        <v>87.11923411662301</v>
       </c>
       <c r="AO15" t="n">
-        <v>4620</v>
+        <v>4809</v>
       </c>
       <c r="AP15" t="n">
-        <v>3016</v>
+        <v>3150</v>
       </c>
       <c r="AQ15" t="n">
-        <v>65.281385281385</v>
+        <v>65.502183406114</v>
       </c>
       <c r="AR15" t="n">
-        <v>852</v>
+        <v>892</v>
       </c>
       <c r="AS15" t="n">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AT15" t="n">
-        <v>41.901408450704</v>
+        <v>41.591928251121</v>
       </c>
       <c r="AU15" t="n">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AV15" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AW15" t="n">
-        <v>24.3961352657</v>
+        <v>24.705882352941</v>
       </c>
       <c r="AX15" t="n">
         <v>2</v>
       </c>
       <c r="AY15" t="n">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="AZ15" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="BA15" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="BB15" t="n">
         <v>2</v>
       </c>
       <c r="BC15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>2</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="BF15" t="n">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="BG15" t="n">
         <v>5</v>
@@ -6999,43 +6999,43 @@
         <v>3</v>
       </c>
       <c r="BI15" t="n">
-        <v>2288</v>
+        <v>2371</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1107</v>
+        <v>1151</v>
       </c>
       <c r="BK15" t="n">
-        <v>48.382867132867</v>
+        <v>48.544917756221</v>
       </c>
       <c r="BL15" t="n">
-        <v>1306</v>
+        <v>1356</v>
       </c>
       <c r="BM15" t="n">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="BN15" t="n">
-        <v>47.932618683002</v>
+        <v>48.156342182891</v>
       </c>
       <c r="BO15" t="n">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="BP15" t="n">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="BQ15" t="n">
-        <v>48.9816700611</v>
+        <v>49.064039408867</v>
       </c>
       <c r="BR15" t="n">
-        <v>3219</v>
+        <v>3337</v>
       </c>
       <c r="BS15" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="BT15" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="BU15" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BV15" t="n">
         <v>1</v>
@@ -7044,46 +7044,46 @@
         <v>5</v>
       </c>
       <c r="BX15" t="n">
-        <v>6.755910543131</v>
+        <v>6.7379939209726</v>
       </c>
       <c r="BY15" t="n">
-        <v>1910</v>
+        <v>1983</v>
       </c>
       <c r="BZ15" t="n">
-        <v>4133</v>
+        <v>4300</v>
       </c>
       <c r="CA15" t="n">
-        <v>3989</v>
+        <v>4244</v>
       </c>
       <c r="CB15" t="n">
-        <v>8122</v>
+        <v>8544</v>
       </c>
       <c r="CC15" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="CD15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="CE15" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CF15" t="n">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="CG15" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="CH15" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="CI15" t="n">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="CJ15" t="n">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="CK15" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CL15" t="n">
         <v>5</v>
@@ -7095,16 +7095,16 @@
         <v>9</v>
       </c>
       <c r="CO15" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="CP15" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="CQ15" t="n">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="CR15" t="n">
-        <v>1290</v>
+        <v>1338</v>
       </c>
       <c r="CS15" t="n">
         <v>34</v>
@@ -7113,61 +7113,61 @@
         <v>1</v>
       </c>
       <c r="CU15" t="n">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="CV15" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="CW15" t="n">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="CX15" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="CY15" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CZ15" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="DA15" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="DB15" t="n">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="DC15" t="n">
-        <v>2843</v>
+        <v>2963</v>
       </c>
       <c r="DD15" t="n">
-        <v>5599</v>
+        <v>5838</v>
       </c>
       <c r="DE15" t="n">
-        <v>4557</v>
+        <v>4825</v>
       </c>
       <c r="DF15" t="n">
-        <v>10156</v>
+        <v>10663</v>
       </c>
       <c r="DG15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="DH15" t="n">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="DI15" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="DJ15" t="n">
-        <v>1022</v>
+        <v>1065</v>
       </c>
       <c r="DK15" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="DL15" t="n">
         <v>49204</v>
       </c>
       <c r="DM15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
@@ -7183,70 +7183,70 @@
         </is>
       </c>
       <c r="DQ15" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="DS15" t="n">
-        <v>11.19</v>
+        <v>11.14</v>
       </c>
       <c r="DT15" t="n">
-        <v>3.57</v>
+        <v>3.64</v>
       </c>
       <c r="DU15" t="n">
-        <v>5.29</v>
+        <v>5.14</v>
       </c>
       <c r="DV15" t="n">
-        <v>11.67</v>
+        <v>11.36</v>
       </c>
       <c r="DW15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="DY15" t="n">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="EC15" t="n">
-        <v>276.43</v>
+        <v>279.68</v>
       </c>
       <c r="ED15" t="n">
-        <v>14.67</v>
+        <v>14.73</v>
       </c>
       <c r="EE15" t="n">
-        <v>10.67</v>
+        <v>10.64</v>
       </c>
       <c r="EF15" t="n">
-        <v>33.14</v>
+        <v>33</v>
       </c>
       <c r="EG15" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="EH15" t="n">
-        <v>52.71</v>
+        <v>52.32</v>
       </c>
       <c r="EI15" t="n">
-        <v>29.81</v>
+        <v>29.68</v>
       </c>
       <c r="EJ15" t="n">
-        <v>22.9</v>
+        <v>22.64</v>
       </c>
       <c r="EK15" t="n">
-        <v>153.29</v>
+        <v>151.68</v>
       </c>
       <c r="EL15" t="n">
-        <v>5.86</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="16">
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
@@ -8055,70 +8055,70 @@
         </is>
       </c>
       <c r="DQ17" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="DR17" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="DS17" t="n">
-        <v>13.38</v>
+        <v>12.77</v>
       </c>
       <c r="DT17" t="n">
-        <v>4.19</v>
+        <v>4</v>
       </c>
       <c r="DU17" t="n">
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="DV17" t="n">
-        <v>10.05</v>
+        <v>9.59</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="DX17" t="n">
         <v>0.14</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="EC17" t="n">
-        <v>398.62</v>
+        <v>380.5</v>
       </c>
       <c r="ED17" t="n">
-        <v>16.76</v>
+        <v>16</v>
       </c>
       <c r="EE17" t="n">
-        <v>9.380000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="EF17" t="n">
-        <v>28.48</v>
+        <v>27.18</v>
       </c>
       <c r="EG17" t="n">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="EH17" t="n">
-        <v>45.9</v>
+        <v>43.82</v>
       </c>
       <c r="EI17" t="n">
-        <v>32.29</v>
+        <v>30.82</v>
       </c>
       <c r="EJ17" t="n">
-        <v>13.62</v>
+        <v>13</v>
       </c>
       <c r="EK17" t="n">
-        <v>134.9</v>
+        <v>128.77</v>
       </c>
       <c r="EL17" t="n">
-        <v>6.33</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="18">
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -8491,70 +8491,70 @@
         </is>
       </c>
       <c r="DQ18" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="DS18" t="n">
-        <v>10.62</v>
+        <v>10.14</v>
       </c>
       <c r="DT18" t="n">
-        <v>3.67</v>
+        <v>3.5</v>
       </c>
       <c r="DU18" t="n">
-        <v>4.95</v>
+        <v>4.73</v>
       </c>
       <c r="DV18" t="n">
-        <v>10.48</v>
+        <v>10</v>
       </c>
       <c r="DW18" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="DX18" t="n">
         <v>0.05</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="EA18" t="n">
         <v>0.14</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="EC18" t="n">
-        <v>353.19</v>
+        <v>337.14</v>
       </c>
       <c r="ED18" t="n">
-        <v>16.86</v>
+        <v>16.09</v>
       </c>
       <c r="EE18" t="n">
-        <v>9.140000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="EF18" t="n">
-        <v>25.62</v>
+        <v>24.45</v>
       </c>
       <c r="EG18" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="EH18" t="n">
-        <v>45.38</v>
+        <v>43.32</v>
       </c>
       <c r="EI18" t="n">
-        <v>30.76</v>
+        <v>29.36</v>
       </c>
       <c r="EJ18" t="n">
-        <v>14.62</v>
+        <v>13.95</v>
       </c>
       <c r="EK18" t="n">
-        <v>141.76</v>
+        <v>135.32</v>
       </c>
       <c r="EL18" t="n">
-        <v>4.67</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="19">

--- a/sofascore_team_data/Bundesliga_Team_Stats.xlsx
+++ b/sofascore_team_data/Bundesliga_Team_Stats.xlsx
@@ -1163,7 +1163,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -1172,34 +1172,34 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>72</v>
+      </c>
+      <c r="O2" t="n">
         <v>7</v>
       </c>
-      <c r="N2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6</v>
-      </c>
       <c r="P2" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q2" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R2" t="n">
         <v>11</v>
@@ -1208,106 +1208,106 @@
         <v>22</v>
       </c>
       <c r="T2" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U2" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X2" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Y2" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z2" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA2" t="n">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="AB2" t="n">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="AC2" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="n">
-        <v>67.380952380952</v>
+        <v>67.272727272727</v>
       </c>
       <c r="AI2" t="n">
-        <v>14869</v>
+        <v>15586</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13423</v>
+        <v>14059</v>
       </c>
       <c r="AK2" t="n">
-        <v>90.27506893536901</v>
+        <v>90.20274605415101</v>
       </c>
       <c r="AL2" t="n">
-        <v>5527</v>
+        <v>5832</v>
       </c>
       <c r="AM2" t="n">
-        <v>5184</v>
+        <v>5465</v>
       </c>
       <c r="AN2" t="n">
-        <v>93.794101682649</v>
+        <v>93.70713305898499</v>
       </c>
       <c r="AO2" t="n">
-        <v>9342</v>
+        <v>9754</v>
       </c>
       <c r="AP2" t="n">
-        <v>8239</v>
+        <v>8594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>88.193106401199</v>
+        <v>88.10744310026701</v>
       </c>
       <c r="AR2" t="n">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="AS2" t="n">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="AT2" t="n">
-        <v>66.80272108843501</v>
+        <v>66.40625</v>
       </c>
       <c r="AU2" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="AV2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW2" t="n">
-        <v>21.574344023324</v>
+        <v>21.348314606742</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AZ2" t="n">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="BA2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
@@ -1322,52 +1322,52 @@
         <v>1</v>
       </c>
       <c r="BF2" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="BG2" t="n">
         <v>2</v>
       </c>
       <c r="BH2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI2" t="n">
-        <v>1742</v>
+        <v>1835</v>
       </c>
       <c r="BJ2" t="n">
-        <v>835</v>
+        <v>874</v>
       </c>
       <c r="BK2" t="n">
-        <v>47.933409873708</v>
+        <v>47.629427792916</v>
       </c>
       <c r="BL2" t="n">
-        <v>1317</v>
+        <v>1398</v>
       </c>
       <c r="BM2" t="n">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="BN2" t="n">
-        <v>46.697038724374</v>
+        <v>46.638054363376</v>
       </c>
       <c r="BO2" t="n">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="BP2" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BQ2" t="n">
-        <v>51.764705882353</v>
+        <v>50.800915331808</v>
       </c>
       <c r="BR2" t="n">
-        <v>2526</v>
+        <v>2677</v>
       </c>
       <c r="BS2" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BT2" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="BU2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>7.1282608695652</v>
+        <v>7.1260355029586</v>
       </c>
       <c r="BY2" t="n">
-        <v>959</v>
+        <v>1024</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1937</v>
+        <v>2059</v>
       </c>
       <c r="CA2" t="n">
-        <v>3503</v>
+        <v>3677</v>
       </c>
       <c r="CB2" t="n">
-        <v>5440</v>
+        <v>5736</v>
       </c>
       <c r="CC2" t="n">
         <v>36</v>
@@ -1400,106 +1400,106 @@
         <v>25</v>
       </c>
       <c r="CF2" t="n">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="CG2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CH2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="CI2" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="CJ2" t="n">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="CK2" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CL2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CM2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CN2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO2" t="n">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="CP2" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="CQ2" t="n">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="CR2" t="n">
-        <v>1099</v>
+        <v>1150</v>
       </c>
       <c r="CS2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CT2" t="n">
         <v>3</v>
       </c>
       <c r="CU2" t="n">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="CV2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="CW2" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="CX2" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="CY2" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="CZ2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="DA2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="DB2" t="n">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="DC2" t="n">
-        <v>1599</v>
+        <v>1702</v>
       </c>
       <c r="DD2" t="n">
-        <v>2992</v>
+        <v>3166</v>
       </c>
       <c r="DE2" t="n">
-        <v>3988</v>
+        <v>4201</v>
       </c>
       <c r="DF2" t="n">
-        <v>6980</v>
+        <v>7367</v>
       </c>
       <c r="DG2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="DH2" t="n">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="DI2" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1085</v>
+        <v>1149</v>
       </c>
       <c r="DK2" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="DL2" t="n">
         <v>48956</v>
       </c>
       <c r="DM2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -1515,70 +1515,70 @@
         </is>
       </c>
       <c r="DQ2" t="n">
-        <v>3.59</v>
+        <v>3.73</v>
       </c>
       <c r="DR2" t="n">
         <v>0.86</v>
       </c>
       <c r="DS2" t="n">
-        <v>18.41</v>
+        <v>18.91</v>
       </c>
       <c r="DT2" t="n">
-        <v>8.449999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.09</v>
+        <v>6.27</v>
       </c>
       <c r="DV2" t="n">
-        <v>8.91</v>
+        <v>9.18</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="DX2" t="n">
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.86</v>
+        <v>5.05</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="EA2" t="n">
         <v>0.68</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="EC2" t="n">
-        <v>610.14</v>
+        <v>639.05</v>
       </c>
       <c r="ED2" t="n">
-        <v>11.64</v>
+        <v>12.18</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.45</v>
+        <v>8</v>
       </c>
       <c r="EF2" t="n">
-        <v>16.23</v>
+        <v>17.05</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="EH2" t="n">
-        <v>37.95</v>
+        <v>39.73</v>
       </c>
       <c r="EI2" t="n">
-        <v>27.95</v>
+        <v>29.64</v>
       </c>
       <c r="EJ2" t="n">
-        <v>10</v>
+        <v>10.09</v>
       </c>
       <c r="EK2" t="n">
-        <v>114.82</v>
+        <v>121.68</v>
       </c>
       <c r="EL2" t="n">
-        <v>8.59</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="3">
@@ -2035,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -2062,124 +2062,124 @@
         <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="Q4" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="R4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U4" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="X4" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y4" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Z4" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AB4" t="n">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AC4" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="n">
         <v>5</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>52.857142857143</v>
+        <v>53.227272727273</v>
       </c>
       <c r="AI4" t="n">
-        <v>9698</v>
+        <v>10221</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7782</v>
+        <v>8222</v>
       </c>
       <c r="AK4" t="n">
-        <v>80.243349144153</v>
+        <v>80.442226787986</v>
       </c>
       <c r="AL4" t="n">
-        <v>4552</v>
+        <v>4783</v>
       </c>
       <c r="AM4" t="n">
-        <v>4116</v>
+        <v>4328</v>
       </c>
       <c r="AN4" t="n">
-        <v>90.421792618629</v>
+        <v>90.487141961112</v>
       </c>
       <c r="AO4" t="n">
-        <v>5146</v>
+        <v>5438</v>
       </c>
       <c r="AP4" t="n">
-        <v>3666</v>
+        <v>3894</v>
       </c>
       <c r="AQ4" t="n">
-        <v>71.239797901283</v>
+        <v>71.607208532549</v>
       </c>
       <c r="AR4" t="n">
-        <v>817</v>
+        <v>864</v>
       </c>
       <c r="AS4" t="n">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AT4" t="n">
-        <v>43.206854345165</v>
+        <v>43.634259259259</v>
       </c>
       <c r="AU4" t="n">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="AV4" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AW4" t="n">
-        <v>28.610354223433</v>
+        <v>28.354430379747</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="AZ4" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="BA4" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BB4" t="n">
         <v>4</v>
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="BF4" t="n">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="BG4" t="n">
         <v>3</v>
@@ -2203,43 +2203,43 @@
         <v>2</v>
       </c>
       <c r="BI4" t="n">
-        <v>2181</v>
+        <v>2266</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="BK4" t="n">
-        <v>48.143053645117</v>
+        <v>48.543689320388</v>
       </c>
       <c r="BL4" t="n">
-        <v>1383</v>
+        <v>1437</v>
       </c>
       <c r="BM4" t="n">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="BN4" t="n">
-        <v>46.565437454808</v>
+        <v>47.042449547669</v>
       </c>
       <c r="BO4" t="n">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="BP4" t="n">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="BQ4" t="n">
-        <v>50.877192982456</v>
+        <v>51.145958986731</v>
       </c>
       <c r="BR4" t="n">
-        <v>2994</v>
+        <v>3128</v>
       </c>
       <c r="BS4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BT4" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="BU4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BV4" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>2</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.8398753894081</v>
+        <v>6.8636904761905</v>
       </c>
       <c r="BY4" t="n">
-        <v>1539</v>
+        <v>1592</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3023</v>
+        <v>3131</v>
       </c>
       <c r="CA4" t="n">
-        <v>3700</v>
+        <v>3827</v>
       </c>
       <c r="CB4" t="n">
-        <v>6723</v>
+        <v>6958</v>
       </c>
       <c r="CC4" t="n">
         <v>54</v>
@@ -2272,106 +2272,106 @@
         <v>34</v>
       </c>
       <c r="CF4" t="n">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="CG4" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="CH4" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="CI4" t="n">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="CJ4" t="n">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="CK4" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="CL4" t="n">
         <v>4</v>
       </c>
       <c r="CM4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN4" t="n">
         <v>6</v>
       </c>
       <c r="CO4" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="CP4" t="n">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="CQ4" t="n">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="CR4" t="n">
-        <v>1362</v>
+        <v>1429</v>
       </c>
       <c r="CS4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CT4" t="n">
         <v>2</v>
       </c>
       <c r="CU4" t="n">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="CV4" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="CW4" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="CX4" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="CY4" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="CZ4" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="DA4" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="DB4" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="DC4" t="n">
-        <v>2301</v>
+        <v>2401</v>
       </c>
       <c r="DD4" t="n">
-        <v>4340</v>
+        <v>4523</v>
       </c>
       <c r="DE4" t="n">
-        <v>4278</v>
+        <v>4426</v>
       </c>
       <c r="DF4" t="n">
-        <v>8618</v>
+        <v>8949</v>
       </c>
       <c r="DG4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="DH4" t="n">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="DI4" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1080</v>
+        <v>1135</v>
       </c>
       <c r="DK4" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="DL4" t="n">
         <v>48995</v>
       </c>
       <c r="DM4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN4" t="n">
         <v>0</v>
@@ -2387,80 +2387,80 @@
         </is>
       </c>
       <c r="DQ4" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="DR4" t="n">
         <v>1.27</v>
       </c>
       <c r="DS4" t="n">
-        <v>12.14</v>
+        <v>13.27</v>
       </c>
       <c r="DT4" t="n">
-        <v>4.64</v>
+        <v>4.95</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.73</v>
+        <v>5</v>
       </c>
       <c r="DV4" t="n">
-        <v>13.73</v>
+        <v>14.09</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="DX4" t="n">
         <v>0.09</v>
       </c>
       <c r="DY4" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="EB4" t="n">
         <v>0.18</v>
       </c>
       <c r="EC4" t="n">
-        <v>353.73</v>
+        <v>373.73</v>
       </c>
       <c r="ED4" t="n">
-        <v>15.23</v>
+        <v>16</v>
       </c>
       <c r="EE4" t="n">
-        <v>7.73</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="EF4" t="n">
-        <v>31.18</v>
+        <v>32.95</v>
       </c>
       <c r="EG4" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="EH4" t="n">
-        <v>47.73</v>
+        <v>50</v>
       </c>
       <c r="EI4" t="n">
-        <v>29.27</v>
+        <v>30.73</v>
       </c>
       <c r="EJ4" t="n">
-        <v>18.45</v>
+        <v>19.27</v>
       </c>
       <c r="EK4" t="n">
-        <v>136.09</v>
+        <v>142.18</v>
       </c>
       <c r="EL4" t="n">
-        <v>5.27</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bayer 04 Leverkusen</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2468,346 +2468,346 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
         <v>34</v>
       </c>
       <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>115</v>
+      </c>
+      <c r="R5" t="n">
         <v>4</v>
       </c>
-      <c r="P5" t="n">
-        <v>169</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>106</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
       <c r="S5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="U5" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="V5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X5" t="n">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="Y5" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Z5" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AA5" t="n">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="AB5" t="n">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="AC5" t="n">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>59.05</v>
+        <v>57.772727272727</v>
       </c>
       <c r="AI5" t="n">
-        <v>12427</v>
+        <v>11425</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11020</v>
+        <v>9661</v>
       </c>
       <c r="AK5" t="n">
-        <v>88.677878812264</v>
+        <v>84.560175054705</v>
       </c>
       <c r="AL5" t="n">
-        <v>6004</v>
+        <v>4762</v>
       </c>
       <c r="AM5" t="n">
-        <v>5564</v>
+        <v>4316</v>
       </c>
       <c r="AN5" t="n">
-        <v>92.671552298468</v>
+        <v>90.634187316254</v>
       </c>
       <c r="AO5" t="n">
-        <v>6423</v>
+        <v>6663</v>
       </c>
       <c r="AP5" t="n">
-        <v>5456</v>
+        <v>5345</v>
       </c>
       <c r="AQ5" t="n">
-        <v>84.944729877005</v>
+        <v>80.21912051628399</v>
       </c>
       <c r="AR5" t="n">
-        <v>708</v>
+        <v>663</v>
       </c>
       <c r="AS5" t="n">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="AT5" t="n">
-        <v>55.367231638418</v>
+        <v>47.058823529412</v>
       </c>
       <c r="AU5" t="n">
-        <v>293</v>
+        <v>429</v>
       </c>
       <c r="AV5" t="n">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="AW5" t="n">
-        <v>20.819112627986</v>
+        <v>25.641025641026</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="AZ5" t="n">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="BA5" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BB5" t="n">
         <v>4</v>
       </c>
       <c r="BC5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BE5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BF5" t="n">
-        <v>438</v>
+        <v>573</v>
       </c>
       <c r="BG5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1090</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>53.827160493827</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1310</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>705</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>53.81679389313</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>715</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>385</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>2854</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>49</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>219</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
         <v>1</v>
       </c>
-      <c r="BH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1679</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>887</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>52.829064919595</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>1211</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>630</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>52.023121387283</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>468</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>257</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>54.91452991453</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>2329</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>24</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>179</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>2</v>
-      </c>
       <c r="BX5" t="n">
-        <v>6.9138709677419</v>
+        <v>6.9127659574468</v>
       </c>
       <c r="BY5" t="n">
-        <v>1702</v>
+        <v>1504</v>
       </c>
       <c r="BZ5" t="n">
-        <v>3315</v>
+        <v>2887</v>
       </c>
       <c r="CA5" t="n">
-        <v>3592</v>
+        <v>3543</v>
       </c>
       <c r="CB5" t="n">
-        <v>6907</v>
+        <v>6430</v>
       </c>
       <c r="CC5" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CD5" t="n">
         <v>31</v>
       </c>
       <c r="CE5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CF5" t="n">
-        <v>439</v>
+        <v>616</v>
       </c>
       <c r="CG5" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="CH5" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="CI5" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="CJ5" t="n">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="CK5" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="CL5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CM5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="CN5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO5" t="n">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="CP5" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CQ5" t="n">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="CR5" t="n">
-        <v>974</v>
+        <v>1342</v>
       </c>
       <c r="CS5" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="CT5" t="n">
         <v>3</v>
       </c>
       <c r="CU5" t="n">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="CV5" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="CW5" t="n">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="CX5" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="CY5" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="CZ5" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="DA5" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="DB5" t="n">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="DC5" t="n">
-        <v>2386</v>
+        <v>2344</v>
       </c>
       <c r="DD5" t="n">
-        <v>4377</v>
+        <v>4269</v>
       </c>
       <c r="DE5" t="n">
-        <v>3991</v>
+        <v>4049</v>
       </c>
       <c r="DF5" t="n">
-        <v>8368</v>
+        <v>8318</v>
       </c>
       <c r="DG5" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="DH5" t="n">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="DI5" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="DJ5" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="DK5" t="n">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="DL5" t="n">
-        <v>48994</v>
+        <v>48997</v>
       </c>
       <c r="DM5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -2826,67 +2826,67 @@
         <v>1.86</v>
       </c>
       <c r="DR5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="DS5" t="n">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.38</v>
+        <v>5.73</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.71</v>
+        <v>5.36</v>
       </c>
       <c r="DV5" t="n">
-        <v>8.52</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="DY5" t="n">
-        <v>3.29</v>
+        <v>2.73</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="EC5" t="n">
-        <v>524.76</v>
+        <v>439.14</v>
       </c>
       <c r="ED5" t="n">
-        <v>12.95</v>
+        <v>14.55</v>
       </c>
       <c r="EE5" t="n">
-        <v>7.57</v>
+        <v>8.68</v>
       </c>
       <c r="EF5" t="n">
-        <v>20.86</v>
+        <v>26.05</v>
       </c>
       <c r="EG5" t="n">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="EH5" t="n">
-        <v>42.24</v>
+        <v>49.55</v>
       </c>
       <c r="EI5" t="n">
-        <v>30</v>
+        <v>32.05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>12.24</v>
+        <v>17.5</v>
       </c>
       <c r="EK5" t="n">
-        <v>110.9</v>
+        <v>129.73</v>
       </c>
       <c r="EL5" t="n">
-        <v>7</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="6">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -2934,52 +2934,52 @@
         <v>11</v>
       </c>
       <c r="N6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O6" t="n">
         <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q6" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R6" t="n">
         <v>6</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V6" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="X6" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y6" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Z6" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AA6" t="n">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AB6" t="n">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="AC6" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
@@ -2994,64 +2994,64 @@
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>52.857142857143</v>
+        <v>53.545454545455</v>
       </c>
       <c r="AI6" t="n">
-        <v>10603</v>
+        <v>11295</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8981</v>
+        <v>9586</v>
       </c>
       <c r="AK6" t="n">
-        <v>84.70244270489501</v>
+        <v>84.86941124391301</v>
       </c>
       <c r="AL6" t="n">
-        <v>5371</v>
+        <v>5592</v>
       </c>
       <c r="AM6" t="n">
-        <v>4883</v>
+        <v>5092</v>
       </c>
       <c r="AN6" t="n">
-        <v>90.914168683672</v>
+        <v>91.058655221745</v>
       </c>
       <c r="AO6" t="n">
-        <v>5232</v>
+        <v>5703</v>
       </c>
       <c r="AP6" t="n">
-        <v>4098</v>
+        <v>4494</v>
       </c>
       <c r="AQ6" t="n">
-        <v>78.325688073395</v>
+        <v>78.800631246712</v>
       </c>
       <c r="AR6" t="n">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="AS6" t="n">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="AT6" t="n">
-        <v>48.235294117647</v>
+        <v>49.315068493151</v>
       </c>
       <c r="AU6" t="n">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="AV6" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AW6" t="n">
-        <v>25.786163522013</v>
+        <v>26.404494382022</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
       </c>
       <c r="AY6" t="n">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AZ6" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BA6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BB6" t="n">
         <v>5</v>
@@ -3066,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="BF6" t="n">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="BG6" t="n">
         <v>3</v>
@@ -3075,43 +3075,43 @@
         <v>9</v>
       </c>
       <c r="BI6" t="n">
-        <v>2075</v>
+        <v>2163</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1051</v>
+        <v>1103</v>
       </c>
       <c r="BK6" t="n">
-        <v>50.650602409639</v>
+        <v>50.993989828941</v>
       </c>
       <c r="BL6" t="n">
-        <v>1496</v>
+        <v>1565</v>
       </c>
       <c r="BM6" t="n">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="BN6" t="n">
-        <v>51.20320855615</v>
+        <v>51.565495207668</v>
       </c>
       <c r="BO6" t="n">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="BP6" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="BQ6" t="n">
-        <v>49.222797927461</v>
+        <v>49.498327759197</v>
       </c>
       <c r="BR6" t="n">
-        <v>2778</v>
+        <v>2934</v>
       </c>
       <c r="BS6" t="n">
         <v>33</v>
       </c>
       <c r="BT6" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="BU6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
@@ -3120,67 +3120,67 @@
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>6.9578431372549</v>
+        <v>6.961801242236</v>
       </c>
       <c r="BY6" t="n">
-        <v>1693</v>
+        <v>1738</v>
       </c>
       <c r="BZ6" t="n">
-        <v>3621</v>
+        <v>3731</v>
       </c>
       <c r="CA6" t="n">
-        <v>4113</v>
+        <v>4257</v>
       </c>
       <c r="CB6" t="n">
-        <v>7734</v>
+        <v>7988</v>
       </c>
       <c r="CC6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CD6" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CE6" t="n">
         <v>33</v>
       </c>
       <c r="CF6" t="n">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="CG6" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="CH6" t="n">
         <v>81</v>
       </c>
       <c r="CI6" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="CJ6" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="CK6" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CL6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CN6" t="n">
         <v>6</v>
       </c>
       <c r="CO6" t="n">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="CP6" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="CQ6" t="n">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="CR6" t="n">
-        <v>1110</v>
+        <v>1152</v>
       </c>
       <c r="CS6" t="n">
         <v>51</v>
@@ -3189,61 +3189,61 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="CV6" t="n">
+        <v>80</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>178</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>89</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>102</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>86</v>
+      </c>
+      <c r="DA6" t="n">
         <v>79</v>
       </c>
-      <c r="CW6" t="n">
-        <v>175</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>82</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>96</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>83</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>78</v>
-      </c>
       <c r="DB6" t="n">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="DC6" t="n">
-        <v>2505</v>
+        <v>2576</v>
       </c>
       <c r="DD6" t="n">
-        <v>4927</v>
+        <v>5081</v>
       </c>
       <c r="DE6" t="n">
-        <v>4534</v>
+        <v>4708</v>
       </c>
       <c r="DF6" t="n">
-        <v>9461</v>
+        <v>9789</v>
       </c>
       <c r="DG6" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="DH6" t="n">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="DI6" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1075</v>
+        <v>1123</v>
       </c>
       <c r="DK6" t="n">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="DL6" t="n">
         <v>48957</v>
       </c>
       <c r="DM6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
@@ -3259,80 +3259,80 @@
         </is>
       </c>
       <c r="DQ6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="DS6" t="n">
-        <v>16.19</v>
+        <v>16.36</v>
       </c>
       <c r="DT6" t="n">
-        <v>5.62</v>
+        <v>5.82</v>
       </c>
       <c r="DU6" t="n">
-        <v>5.29</v>
+        <v>5.32</v>
       </c>
       <c r="DV6" t="n">
-        <v>9.24</v>
+        <v>9.09</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="DX6" t="n">
         <v>0</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="DZ6" t="n">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="EB6" t="n">
         <v>0.05</v>
       </c>
       <c r="EC6" t="n">
-        <v>427.67</v>
+        <v>435.73</v>
       </c>
       <c r="ED6" t="n">
-        <v>15.52</v>
+        <v>15.27</v>
       </c>
       <c r="EE6" t="n">
-        <v>9.050000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="EF6" t="n">
-        <v>29.05</v>
+        <v>28.27</v>
       </c>
       <c r="EG6" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="EH6" t="n">
-        <v>50.05</v>
+        <v>50.14</v>
       </c>
       <c r="EI6" t="n">
-        <v>36.48</v>
+        <v>36.68</v>
       </c>
       <c r="EJ6" t="n">
-        <v>13.57</v>
+        <v>13.45</v>
       </c>
       <c r="EK6" t="n">
-        <v>132.29</v>
+        <v>133.36</v>
       </c>
       <c r="EL6" t="n">
-        <v>11.1</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3343,10 +3343,10 @@
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -3355,328 +3355,328 @@
         <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
+        <v>12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37</v>
+      </c>
+      <c r="O7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="n">
-        <v>31</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
       <c r="P7" t="n">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="Q7" t="n">
         <v>110</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U7" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="V7" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="W7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X7" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="n">
         <v>116</v>
       </c>
       <c r="Z7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>342</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>107</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>59.47619047619</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13273</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11774</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>88.706396443909</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6384</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5921</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>92.747493734336</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6889</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5853</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>84.961532878502</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>756</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>416</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>55.026455026455</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>311</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>20.900321543408</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>280</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>166</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>73</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>458</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1743</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>917</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>52.610441767068</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1261</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>652</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>51.704996034893</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>482</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>265</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>54.979253112033</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2464</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>26</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>186</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>6.9294478527607</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1762</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>3447</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>3762</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>7209</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>44</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>32</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>466</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>98</v>
+      </c>
+      <c r="CH7" t="n">
         <v>79</v>
       </c>
-      <c r="AA7" t="n">
-        <v>123</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>238</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>57.809523809524</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10950</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9258</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>84.547945205479</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>4566</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>4141</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>90.69207183530401</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6384</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>5117</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>80.15350877193001</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>637</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>299</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>46.938775510204</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>415</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>107</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>25.78313253012</v>
-      </c>
-      <c r="AX7" t="n">
+      <c r="CI7" t="n">
+        <v>343</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>203</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>90</v>
+      </c>
+      <c r="CL7" t="n">
         <v>8</v>
       </c>
-      <c r="AY7" t="n">
-        <v>298</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>189</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>64</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="CM7" t="n">
+        <v>14</v>
+      </c>
+      <c r="CN7" t="n">
         <v>7</v>
       </c>
-      <c r="BE7" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>534</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1926</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>1034</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>53.686396677051</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>1249</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>667</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>53.402722177742</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>677</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>367</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>54.209748892171</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>2742</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>48</v>
-      </c>
-      <c r="BT7" t="n">
+      <c r="CO7" t="n">
         <v>209</v>
       </c>
-      <c r="BU7" t="n">
-        <v>40</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>6.9019169329073</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>1428</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>2747</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>3424</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>6171</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>45</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>29</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>28</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>589</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>88</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>70</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>308</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>232</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>100</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>10</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>224</v>
-      </c>
       <c r="CP7" t="n">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="CQ7" t="n">
-        <v>524</v>
+        <v>442</v>
       </c>
       <c r="CR7" t="n">
-        <v>1289</v>
+        <v>1015</v>
       </c>
       <c r="CS7" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="CT7" t="n">
         <v>3</v>
       </c>
       <c r="CU7" t="n">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="CV7" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="CW7" t="n">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="CX7" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="CY7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CZ7" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="DA7" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="DB7" t="n">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="DC7" t="n">
-        <v>2223</v>
+        <v>2481</v>
       </c>
       <c r="DD7" t="n">
-        <v>4066</v>
+        <v>4560</v>
       </c>
       <c r="DE7" t="n">
-        <v>3915</v>
+        <v>4191</v>
       </c>
       <c r="DF7" t="n">
-        <v>7981</v>
+        <v>8751</v>
       </c>
       <c r="DG7" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="DH7" t="n">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="DI7" t="n">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="DK7" t="n">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="DL7" t="n">
-        <v>48997</v>
+        <v>48994</v>
       </c>
       <c r="DM7" t="n">
         <v>21</v>
@@ -3695,70 +3695,70 @@
         </is>
       </c>
       <c r="DQ7" t="n">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="DS7" t="n">
-        <v>15.1</v>
+        <v>13.67</v>
       </c>
       <c r="DT7" t="n">
-        <v>5.81</v>
+        <v>4.71</v>
       </c>
       <c r="DU7" t="n">
-        <v>5.52</v>
+        <v>5.1</v>
       </c>
       <c r="DV7" t="n">
-        <v>9.949999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="DW7" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="DY7" t="n">
-        <v>2.67</v>
+        <v>3.52</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="EA7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EB7" t="n">
         <v>0.19</v>
       </c>
-      <c r="EB7" t="n">
-        <v>0.14</v>
-      </c>
       <c r="EC7" t="n">
-        <v>440.86</v>
+        <v>560.67</v>
       </c>
       <c r="ED7" t="n">
-        <v>14.19</v>
+        <v>13.33</v>
       </c>
       <c r="EE7" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="EF7" t="n">
-        <v>25.43</v>
+        <v>21.81</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.05</v>
+        <v>3.48</v>
       </c>
       <c r="EH7" t="n">
-        <v>49.24</v>
+        <v>43.67</v>
       </c>
       <c r="EI7" t="n">
-        <v>31.76</v>
+        <v>31.05</v>
       </c>
       <c r="EJ7" t="n">
-        <v>17.48</v>
+        <v>12.62</v>
       </c>
       <c r="EK7" t="n">
-        <v>130.57</v>
+        <v>117.33</v>
       </c>
       <c r="EL7" t="n">
-        <v>5.86</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="8">
@@ -3779,7 +3779,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
         <v>46</v>
@@ -3788,10 +3788,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -3806,52 +3806,52 @@
         <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R8" t="n">
         <v>6</v>
       </c>
       <c r="S8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U8" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X8" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z8" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AC8" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AD8" t="n">
         <v>8</v>
@@ -3866,70 +3866,70 @@
         <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>53</v>
+        <v>52.590909090909</v>
       </c>
       <c r="AI8" t="n">
-        <v>10331</v>
+        <v>10710</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8542</v>
+        <v>8866</v>
       </c>
       <c r="AK8" t="n">
-        <v>82.68318652599</v>
+        <v>82.782446311858</v>
       </c>
       <c r="AL8" t="n">
-        <v>4994</v>
+        <v>5250</v>
       </c>
       <c r="AM8" t="n">
-        <v>4496</v>
+        <v>4731</v>
       </c>
       <c r="AN8" t="n">
-        <v>90.02803364036799</v>
+        <v>90.114285714286</v>
       </c>
       <c r="AO8" t="n">
-        <v>5337</v>
+        <v>5460</v>
       </c>
       <c r="AP8" t="n">
-        <v>4046</v>
+        <v>4135</v>
       </c>
       <c r="AQ8" t="n">
-        <v>75.8103803635</v>
+        <v>75.732600732601</v>
       </c>
       <c r="AR8" t="n">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="AS8" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AT8" t="n">
-        <v>46.894803548796</v>
+        <v>46.520146520147</v>
       </c>
       <c r="AU8" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AV8" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AW8" t="n">
-        <v>20.89552238806</v>
+        <v>21.114369501466</v>
       </c>
       <c r="AX8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="AZ8" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="BA8" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>3</v>
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="BF8" t="n">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="BG8" t="n">
         <v>2</v>
@@ -3947,43 +3947,43 @@
         <v>6</v>
       </c>
       <c r="BI8" t="n">
-        <v>2020</v>
+        <v>2111</v>
       </c>
       <c r="BJ8" t="n">
-        <v>951</v>
+        <v>1000</v>
       </c>
       <c r="BK8" t="n">
-        <v>47.079207920792</v>
+        <v>47.370914258645</v>
       </c>
       <c r="BL8" t="n">
-        <v>1368</v>
+        <v>1436</v>
       </c>
       <c r="BM8" t="n">
-        <v>668</v>
+        <v>706</v>
       </c>
       <c r="BN8" t="n">
-        <v>48.830409356725</v>
+        <v>49.1643454039</v>
       </c>
       <c r="BO8" t="n">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="BP8" t="n">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="BQ8" t="n">
-        <v>43.40490797546</v>
+        <v>43.555555555556</v>
       </c>
       <c r="BR8" t="n">
-        <v>2875</v>
+        <v>2970</v>
       </c>
       <c r="BS8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BT8" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="BU8" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BV8" t="n">
         <v>2</v>
@@ -3992,19 +3992,19 @@
         <v>2</v>
       </c>
       <c r="BX8" t="n">
-        <v>6.7051829268293</v>
+        <v>6.7316860465116</v>
       </c>
       <c r="BY8" t="n">
-        <v>1710</v>
+        <v>1815</v>
       </c>
       <c r="BZ8" t="n">
-        <v>3615</v>
+        <v>3831</v>
       </c>
       <c r="CA8" t="n">
-        <v>3937</v>
+        <v>4137</v>
       </c>
       <c r="CB8" t="n">
-        <v>7552</v>
+        <v>7968</v>
       </c>
       <c r="CC8" t="n">
         <v>61</v>
@@ -4016,106 +4016,106 @@
         <v>31</v>
       </c>
       <c r="CF8" t="n">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="CG8" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="CH8" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="CI8" t="n">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="CJ8" t="n">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="CK8" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="CL8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN8" t="n">
         <v>9</v>
       </c>
-      <c r="CN8" t="n">
-        <v>8</v>
-      </c>
       <c r="CO8" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="CP8" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="CQ8" t="n">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="CR8" t="n">
-        <v>1136</v>
+        <v>1167</v>
       </c>
       <c r="CS8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CT8" t="n">
         <v>2</v>
       </c>
       <c r="CU8" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="CV8" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="CW8" t="n">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="CX8" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="CY8" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="CZ8" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="DA8" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="DB8" t="n">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="DC8" t="n">
-        <v>2531</v>
+        <v>2663</v>
       </c>
       <c r="DD8" t="n">
-        <v>4895</v>
+        <v>5147</v>
       </c>
       <c r="DE8" t="n">
-        <v>4399</v>
+        <v>4610</v>
       </c>
       <c r="DF8" t="n">
-        <v>9294</v>
+        <v>9757</v>
       </c>
       <c r="DG8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DH8" t="n">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="DI8" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="DJ8" t="n">
-        <v>970</v>
+        <v>1009</v>
       </c>
       <c r="DK8" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="DL8" t="n">
         <v>48992</v>
       </c>
       <c r="DM8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
@@ -4131,34 +4131,34 @@
         </is>
       </c>
       <c r="DQ8" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="DR8" t="n">
         <v>2.09</v>
       </c>
       <c r="DS8" t="n">
-        <v>11.05</v>
+        <v>11.59</v>
       </c>
       <c r="DT8" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="DU8" t="n">
-        <v>4.27</v>
+        <v>4.36</v>
       </c>
       <c r="DV8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="DX8" t="n">
         <v>0.09</v>
       </c>
       <c r="DY8" t="n">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="EA8" t="n">
         <v>0.36</v>
@@ -4167,34 +4167,34 @@
         <v>0.14</v>
       </c>
       <c r="EC8" t="n">
-        <v>388.27</v>
+        <v>403</v>
       </c>
       <c r="ED8" t="n">
-        <v>15.91</v>
+        <v>16.77</v>
       </c>
       <c r="EE8" t="n">
-        <v>9.18</v>
+        <v>9.59</v>
       </c>
       <c r="EF8" t="n">
-        <v>24.95</v>
+        <v>26.36</v>
       </c>
       <c r="EG8" t="n">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="EH8" t="n">
-        <v>43.23</v>
+        <v>45.45</v>
       </c>
       <c r="EI8" t="n">
-        <v>30.36</v>
+        <v>32.09</v>
       </c>
       <c r="EJ8" t="n">
-        <v>12.86</v>
+        <v>13.36</v>
       </c>
       <c r="EK8" t="n">
-        <v>130.68</v>
+        <v>135</v>
       </c>
       <c r="EL8" t="n">
-        <v>5.95</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="9">
@@ -4218,7 +4218,7 @@
         <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
@@ -4248,10 +4248,10 @@
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q9" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
@@ -4272,100 +4272,100 @@
         <v>25</v>
       </c>
       <c r="X9" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Z9" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB9" t="n">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="AC9" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>48.904761904762</v>
+        <v>48.454545454545</v>
       </c>
       <c r="AI9" t="n">
-        <v>8691</v>
+        <v>9022</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7066</v>
+        <v>7301</v>
       </c>
       <c r="AK9" t="n">
-        <v>81.30249683580701</v>
+        <v>80.924407005099</v>
       </c>
       <c r="AL9" t="n">
-        <v>4112</v>
+        <v>4260</v>
       </c>
       <c r="AM9" t="n">
-        <v>3732</v>
+        <v>3859</v>
       </c>
       <c r="AN9" t="n">
-        <v>90.758754863813</v>
+        <v>90.586854460094</v>
       </c>
       <c r="AO9" t="n">
-        <v>4579</v>
+        <v>4762</v>
       </c>
       <c r="AP9" t="n">
-        <v>3334</v>
+        <v>3442</v>
       </c>
       <c r="AQ9" t="n">
-        <v>72.810657348766</v>
+        <v>72.28055438891199</v>
       </c>
       <c r="AR9" t="n">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="AS9" t="n">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AT9" t="n">
-        <v>47.305389221557</v>
+        <v>47.285714285714</v>
       </c>
       <c r="AU9" t="n">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AV9" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AW9" t="n">
-        <v>28.316326530612</v>
+        <v>28.186274509804</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AZ9" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="BA9" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BB9" t="n">
         <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>1</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="BG9" t="n">
         <v>2</v>
@@ -4383,43 +4383,43 @@
         <v>2</v>
       </c>
       <c r="BI9" t="n">
-        <v>2020</v>
+        <v>2105</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1064</v>
+        <v>1099</v>
       </c>
       <c r="BK9" t="n">
-        <v>52.673267326733</v>
+        <v>52.209026128266</v>
       </c>
       <c r="BL9" t="n">
-        <v>1252</v>
+        <v>1306</v>
       </c>
       <c r="BM9" t="n">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="BN9" t="n">
-        <v>53.514376996805</v>
+        <v>52.986217457887</v>
       </c>
       <c r="BO9" t="n">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="BP9" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BQ9" t="n">
-        <v>51.302083333333</v>
+        <v>50.938673341677</v>
       </c>
       <c r="BR9" t="n">
-        <v>2707</v>
+        <v>2853</v>
       </c>
       <c r="BS9" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BT9" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="BU9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BV9" t="n">
         <v>1</v>
@@ -4428,46 +4428,46 @@
         <v>3</v>
       </c>
       <c r="BX9" t="n">
-        <v>6.7826219512195</v>
+        <v>6.7648255813953</v>
       </c>
       <c r="BY9" t="n">
-        <v>1824</v>
+        <v>1941</v>
       </c>
       <c r="BZ9" t="n">
-        <v>3757</v>
+        <v>3985</v>
       </c>
       <c r="CA9" t="n">
-        <v>3812</v>
+        <v>4024</v>
       </c>
       <c r="CB9" t="n">
-        <v>7569</v>
+        <v>8009</v>
       </c>
       <c r="CC9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CD9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CE9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CF9" t="n">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="CG9" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="CH9" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="CI9" t="n">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="CJ9" t="n">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="CK9" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="CL9" t="n">
         <v>4</v>
@@ -4476,82 +4476,82 @@
         <v>7</v>
       </c>
       <c r="CN9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CO9" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="CP9" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="CQ9" t="n">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="CR9" t="n">
-        <v>1076</v>
+        <v>1137</v>
       </c>
       <c r="CS9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CT9" t="n">
         <v>3</v>
       </c>
       <c r="CU9" t="n">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="CV9" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="CW9" t="n">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="CX9" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="CY9" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="CZ9" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="DA9" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="DB9" t="n">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="DC9" t="n">
-        <v>2593</v>
+        <v>2748</v>
       </c>
       <c r="DD9" t="n">
-        <v>4994</v>
+        <v>5286</v>
       </c>
       <c r="DE9" t="n">
-        <v>4223</v>
+        <v>4454</v>
       </c>
       <c r="DF9" t="n">
-        <v>9217</v>
+        <v>9740</v>
       </c>
       <c r="DG9" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="DH9" t="n">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="DI9" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="DJ9" t="n">
-        <v>899</v>
+        <v>950</v>
       </c>
       <c r="DK9" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="DL9" t="n">
         <v>49000</v>
       </c>
       <c r="DM9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
@@ -4570,22 +4570,22 @@
         <v>1.45</v>
       </c>
       <c r="DR9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="DW9" t="n">
         <v>1.5</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>1.45</v>
       </c>
       <c r="DX9" t="n">
         <v>0.14</v>
@@ -4603,34 +4603,34 @@
         <v>0.23</v>
       </c>
       <c r="EC9" t="n">
-        <v>321.18</v>
+        <v>331.86</v>
       </c>
       <c r="ED9" t="n">
-        <v>13.64</v>
+        <v>13.91</v>
       </c>
       <c r="EE9" t="n">
-        <v>8.640000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="EF9" t="n">
-        <v>25.95</v>
+        <v>27.77</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="EH9" t="n">
-        <v>48.36</v>
+        <v>49.95</v>
       </c>
       <c r="EI9" t="n">
-        <v>30.45</v>
+        <v>31.45</v>
       </c>
       <c r="EJ9" t="n">
-        <v>17.91</v>
+        <v>18.5</v>
       </c>
       <c r="EK9" t="n">
-        <v>123.05</v>
+        <v>129.68</v>
       </c>
       <c r="EL9" t="n">
-        <v>5.36</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="10">
@@ -4651,19 +4651,19 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -4678,16 +4678,16 @@
         <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q10" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
@@ -4696,121 +4696,121 @@
         <v>9</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U10" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="V10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X10" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y10" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Z10" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AB10" t="n">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AC10" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AD10" t="n">
         <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>46.6</v>
+        <v>47.047619047619</v>
       </c>
       <c r="AI10" t="n">
-        <v>8241</v>
+        <v>8683</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6782</v>
+        <v>7127</v>
       </c>
       <c r="AK10" t="n">
-        <v>82.295837883752</v>
+        <v>82.079926292756</v>
       </c>
       <c r="AL10" t="n">
-        <v>4571</v>
+        <v>4779</v>
       </c>
       <c r="AM10" t="n">
-        <v>4176</v>
+        <v>4361</v>
       </c>
       <c r="AN10" t="n">
-        <v>91.358564865456</v>
+        <v>91.253400292948</v>
       </c>
       <c r="AO10" t="n">
-        <v>3670</v>
+        <v>3904</v>
       </c>
       <c r="AP10" t="n">
-        <v>2606</v>
+        <v>2766</v>
       </c>
       <c r="AQ10" t="n">
-        <v>71.008174386921</v>
+        <v>70.85040983606601</v>
       </c>
       <c r="AR10" t="n">
-        <v>699</v>
+        <v>740</v>
       </c>
       <c r="AS10" t="n">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AT10" t="n">
-        <v>47.353361945637</v>
+        <v>46.621621621622</v>
       </c>
       <c r="AU10" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="AV10" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AW10" t="n">
-        <v>23.529411764706</v>
+        <v>23.860589812332</v>
       </c>
       <c r="AX10" t="n">
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="AZ10" t="n">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="BA10" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BB10" t="n">
         <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE10" t="n">
         <v>3</v>
       </c>
-      <c r="BE10" t="n">
-        <v>2</v>
-      </c>
       <c r="BF10" t="n">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="BG10" t="n">
         <v>4</v>
@@ -4819,43 +4819,43 @@
         <v>3</v>
       </c>
       <c r="BI10" t="n">
-        <v>1897</v>
+        <v>2008</v>
       </c>
       <c r="BJ10" t="n">
-        <v>991</v>
+        <v>1045</v>
       </c>
       <c r="BK10" t="n">
-        <v>52.240379546653</v>
+        <v>52.041832669323</v>
       </c>
       <c r="BL10" t="n">
-        <v>1305</v>
+        <v>1364</v>
       </c>
       <c r="BM10" t="n">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="BN10" t="n">
-        <v>51.954022988506</v>
+        <v>51.906158357771</v>
       </c>
       <c r="BO10" t="n">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="BP10" t="n">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="BQ10" t="n">
-        <v>52.871621621622</v>
+        <v>52.329192546584</v>
       </c>
       <c r="BR10" t="n">
-        <v>2437</v>
+        <v>2586</v>
       </c>
       <c r="BS10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BT10" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="BU10" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BV10" t="n">
         <v>5</v>
@@ -4864,130 +4864,130 @@
         <v>6</v>
       </c>
       <c r="BX10" t="n">
-        <v>6.7853968253968</v>
+        <v>6.7873111782477</v>
       </c>
       <c r="BY10" t="n">
-        <v>1987</v>
+        <v>2056</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4521</v>
+        <v>4640</v>
       </c>
       <c r="CA10" t="n">
-        <v>3473</v>
+        <v>3594</v>
       </c>
       <c r="CB10" t="n">
-        <v>7994</v>
+        <v>8234</v>
       </c>
       <c r="CC10" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CD10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CE10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CF10" t="n">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="CG10" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="CH10" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="CI10" t="n">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="CJ10" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="CK10" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="CL10" t="n">
         <v>2</v>
       </c>
       <c r="CM10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CN10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CO10" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="CP10" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="CQ10" t="n">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="CR10" t="n">
-        <v>919</v>
+        <v>989</v>
       </c>
       <c r="CS10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CT10" t="n">
         <v>1</v>
       </c>
       <c r="CU10" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="CV10" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="CW10" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="CX10" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="CY10" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="CZ10" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="DA10" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="DB10" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="DC10" t="n">
-        <v>2797</v>
+        <v>2929</v>
       </c>
       <c r="DD10" t="n">
-        <v>5735</v>
+        <v>5939</v>
       </c>
       <c r="DE10" t="n">
-        <v>3799</v>
+        <v>3931</v>
       </c>
       <c r="DF10" t="n">
-        <v>9534</v>
+        <v>9870</v>
       </c>
       <c r="DG10" t="n">
         <v>45</v>
       </c>
       <c r="DH10" t="n">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="DI10" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="DJ10" t="n">
-        <v>877</v>
+        <v>925</v>
       </c>
       <c r="DK10" t="n">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="DL10" t="n">
         <v>49293</v>
       </c>
       <c r="DM10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN10" t="n">
         <v>0</v>
@@ -5003,34 +5003,34 @@
         </is>
       </c>
       <c r="DQ10" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="DS10" t="n">
-        <v>12.52</v>
+        <v>13.14</v>
       </c>
       <c r="DT10" t="n">
-        <v>4.62</v>
+        <v>4.81</v>
       </c>
       <c r="DU10" t="n">
-        <v>3.67</v>
+        <v>3.95</v>
       </c>
       <c r="DV10" t="n">
-        <v>11.9</v>
+        <v>12.48</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="DX10" t="n">
         <v>0.29</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="EA10" t="n">
         <v>0.43</v>
@@ -5039,34 +5039,34 @@
         <v>0.05</v>
       </c>
       <c r="EC10" t="n">
-        <v>322.95</v>
+        <v>339.38</v>
       </c>
       <c r="ED10" t="n">
-        <v>13.67</v>
+        <v>14.29</v>
       </c>
       <c r="EE10" t="n">
-        <v>7.67</v>
+        <v>8.24</v>
       </c>
       <c r="EF10" t="n">
-        <v>28.33</v>
+        <v>29.86</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="EH10" t="n">
-        <v>47.19</v>
+        <v>49.76</v>
       </c>
       <c r="EI10" t="n">
-        <v>32.29</v>
+        <v>33.71</v>
       </c>
       <c r="EJ10" t="n">
-        <v>14.9</v>
+        <v>16.05</v>
       </c>
       <c r="EK10" t="n">
-        <v>116.05</v>
+        <v>123.14</v>
       </c>
       <c r="EL10" t="n">
-        <v>7</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="11">
@@ -5087,157 +5087,157 @@
         <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O11" t="n">
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q11" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U11" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Z11" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AB11" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="AC11" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
         <v>2</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>38.952380952381</v>
+        <v>39.181818181818</v>
       </c>
       <c r="AI11" t="n">
-        <v>6782</v>
+        <v>7118</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4875</v>
+        <v>5115</v>
       </c>
       <c r="AK11" t="n">
-        <v>71.88145089944</v>
+        <v>71.86007305422901</v>
       </c>
       <c r="AL11" t="n">
-        <v>2956</v>
+        <v>3088</v>
       </c>
       <c r="AM11" t="n">
-        <v>2559</v>
+        <v>2680</v>
       </c>
       <c r="AN11" t="n">
-        <v>86.569688768606</v>
+        <v>86.787564766839</v>
       </c>
       <c r="AO11" t="n">
-        <v>3826</v>
+        <v>4030</v>
       </c>
       <c r="AP11" t="n">
-        <v>2316</v>
+        <v>2435</v>
       </c>
       <c r="AQ11" t="n">
-        <v>60.533193936226</v>
+        <v>60.421836228288</v>
       </c>
       <c r="AR11" t="n">
-        <v>912</v>
+        <v>963</v>
       </c>
       <c r="AS11" t="n">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="AT11" t="n">
-        <v>39.69298245614</v>
+        <v>39.356178608515</v>
       </c>
       <c r="AU11" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AV11" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AW11" t="n">
-        <v>28.636363636364</v>
+        <v>29.347826086957</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="AZ11" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="BA11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
       </c>
       <c r="BC11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>5</v>
@@ -5246,7 +5246,7 @@
         <v>5</v>
       </c>
       <c r="BF11" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="BG11" t="n">
         <v>1</v>
@@ -5255,40 +5255,40 @@
         <v>4</v>
       </c>
       <c r="BI11" t="n">
-        <v>2269</v>
+        <v>2380</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1102</v>
+        <v>1159</v>
       </c>
       <c r="BK11" t="n">
-        <v>48.567650947554</v>
+        <v>48.697478991597</v>
       </c>
       <c r="BL11" t="n">
-        <v>1329</v>
+        <v>1388</v>
       </c>
       <c r="BM11" t="n">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="BN11" t="n">
-        <v>47.7050413845</v>
+        <v>47.766570605187</v>
       </c>
       <c r="BO11" t="n">
-        <v>940</v>
+        <v>992</v>
       </c>
       <c r="BP11" t="n">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="BQ11" t="n">
-        <v>49.787234042553</v>
+        <v>50</v>
       </c>
       <c r="BR11" t="n">
-        <v>3039</v>
+        <v>3185</v>
       </c>
       <c r="BS11" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BT11" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="BU11" t="n">
         <v>45</v>
@@ -5300,130 +5300,130 @@
         <v>2</v>
       </c>
       <c r="BX11" t="n">
-        <v>6.7164133738602</v>
+        <v>6.7130434782609</v>
       </c>
       <c r="BY11" t="n">
-        <v>1772</v>
+        <v>1850</v>
       </c>
       <c r="BZ11" t="n">
-        <v>4337</v>
+        <v>4497</v>
       </c>
       <c r="CA11" t="n">
-        <v>4982</v>
+        <v>5167</v>
       </c>
       <c r="CB11" t="n">
-        <v>9319</v>
+        <v>9664</v>
       </c>
       <c r="CC11" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="CD11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CE11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CF11" t="n">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="CG11" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="CH11" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CI11" t="n">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="CJ11" t="n">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="CK11" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="CL11" t="n">
         <v>4</v>
       </c>
       <c r="CM11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CN11" t="n">
         <v>7</v>
       </c>
       <c r="CO11" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="CP11" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="CQ11" t="n">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="CR11" t="n">
-        <v>1142</v>
+        <v>1198</v>
       </c>
       <c r="CS11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CT11" t="n">
         <v>3</v>
       </c>
       <c r="CU11" t="n">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="CV11" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="CW11" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="CX11" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="CY11" t="n">
+        <v>99</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>94</v>
       </c>
-      <c r="CZ11" t="n">
-        <v>90</v>
-      </c>
       <c r="DA11" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="DB11" t="n">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="DC11" t="n">
-        <v>2627</v>
+        <v>2756</v>
       </c>
       <c r="DD11" t="n">
-        <v>5695</v>
+        <v>5929</v>
       </c>
       <c r="DE11" t="n">
-        <v>5480</v>
+        <v>5688</v>
       </c>
       <c r="DF11" t="n">
-        <v>11175</v>
+        <v>11617</v>
       </c>
       <c r="DG11" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="DH11" t="n">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="DI11" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="DJ11" t="n">
-        <v>982</v>
+        <v>1035</v>
       </c>
       <c r="DK11" t="n">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="DL11" t="n">
         <v>48996</v>
       </c>
       <c r="DM11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
@@ -5439,22 +5439,22 @@
         </is>
       </c>
       <c r="DQ11" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="DS11" t="n">
-        <v>12.41</v>
+        <v>12.95</v>
       </c>
       <c r="DT11" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="DU11" t="n">
-        <v>5.27</v>
+        <v>5.41</v>
       </c>
       <c r="DV11" t="n">
-        <v>12.55</v>
+        <v>12.86</v>
       </c>
       <c r="DW11" t="n">
         <v>2.05</v>
@@ -5463,56 +5463,56 @@
         <v>0.09</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="EC11" t="n">
-        <v>221.59</v>
+        <v>232.5</v>
       </c>
       <c r="ED11" t="n">
-        <v>14.86</v>
+        <v>15.45</v>
       </c>
       <c r="EE11" t="n">
-        <v>8</v>
+        <v>8.68</v>
       </c>
       <c r="EF11" t="n">
-        <v>28.77</v>
+        <v>30.32</v>
       </c>
       <c r="EG11" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="EH11" t="n">
-        <v>50.09</v>
+        <v>52.68</v>
       </c>
       <c r="EI11" t="n">
-        <v>28.82</v>
+        <v>30.14</v>
       </c>
       <c r="EJ11" t="n">
-        <v>21.27</v>
+        <v>22.55</v>
       </c>
       <c r="EK11" t="n">
-        <v>138.14</v>
+        <v>144.77</v>
       </c>
       <c r="EL11" t="n">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2671</v>
+        <v>2600</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5520,346 +5520,346 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>280</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="n">
-        <v>20</v>
-      </c>
-      <c r="I12" t="n">
-        <v>281</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
         <v>24</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="Q12" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="R12" t="n">
         <v>6</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U12" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="V12" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="W12" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="X12" t="n">
         <v>95</v>
       </c>
       <c r="Y12" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="n">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="AB12" t="n">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="AC12" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>45.954545454545</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9119</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7256</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>79.57012830354201</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4244</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3765</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>88.71347785108399</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4875</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3491</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>71.610256410256</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>745</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>336</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>45.10067114094</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>392</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>22.959183673469</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>349</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>184</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>57</v>
+      </c>
+      <c r="BB12" t="n">
         <v>6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>47.47619047619</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8703</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>7048</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>80.98356888429301</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4274</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>3857</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>90.243331773514</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>4429</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>3191</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>72.04786633551601</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>671</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>287</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>42.771982116244</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>402</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>111</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>27.611940298507</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>305</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>161</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
       </c>
       <c r="BD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>650</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH12" t="n">
         <v>5</v>
       </c>
-      <c r="BE12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>632</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>2</v>
-      </c>
       <c r="BI12" t="n">
-        <v>1961</v>
+        <v>2226</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1016</v>
+        <v>1100</v>
       </c>
       <c r="BK12" t="n">
-        <v>51.810300866905</v>
+        <v>49.415992812219</v>
       </c>
       <c r="BL12" t="n">
-        <v>1195</v>
+        <v>1493</v>
       </c>
       <c r="BM12" t="n">
-        <v>612</v>
+        <v>753</v>
       </c>
       <c r="BN12" t="n">
-        <v>51.213389121339</v>
+        <v>50.435365036839</v>
       </c>
       <c r="BO12" t="n">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="BP12" t="n">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="BQ12" t="n">
-        <v>52.741514360313</v>
+        <v>47.339699863574</v>
       </c>
       <c r="BR12" t="n">
-        <v>2709</v>
+        <v>3071</v>
       </c>
       <c r="BS12" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="BT12" t="n">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="BU12" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12" t="n">
         <v>1</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.8215568862275</v>
+        <v>6.7621700879765</v>
       </c>
       <c r="BY12" t="n">
-        <v>1927</v>
+        <v>1985</v>
       </c>
       <c r="BZ12" t="n">
-        <v>3878</v>
+        <v>4203</v>
       </c>
       <c r="CA12" t="n">
-        <v>4138</v>
+        <v>4856</v>
       </c>
       <c r="CB12" t="n">
-        <v>8016</v>
+        <v>9059</v>
       </c>
       <c r="CC12" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="CD12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CE12" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="CF12" t="n">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="CG12" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="CH12" t="n">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="CI12" t="n">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="CJ12" t="n">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="CK12" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="CL12" t="n">
         <v>5</v>
       </c>
       <c r="CM12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CN12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CO12" t="n">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="CP12" t="n">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="CQ12" t="n">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="CR12" t="n">
-        <v>1069</v>
+        <v>1214</v>
       </c>
       <c r="CS12" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="CT12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CU12" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="CV12" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="CW12" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CX12" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CY12" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CZ12" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="DA12" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="DB12" t="n">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="DC12" t="n">
-        <v>2781</v>
+        <v>2927</v>
       </c>
       <c r="DD12" t="n">
-        <v>5140</v>
+        <v>5649</v>
       </c>
       <c r="DE12" t="n">
-        <v>4504</v>
+        <v>5327</v>
       </c>
       <c r="DF12" t="n">
-        <v>9644</v>
+        <v>10976</v>
       </c>
       <c r="DG12" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="DH12" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="DI12" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="DJ12" t="n">
-        <v>885</v>
+        <v>1068</v>
       </c>
       <c r="DK12" t="n">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="DL12" t="n">
-        <v>49205</v>
+        <v>49001</v>
       </c>
       <c r="DM12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN12" t="n">
         <v>0</v>
@@ -5875,80 +5875,80 @@
         </is>
       </c>
       <c r="DQ12" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="DS12" t="n">
-        <v>13.38</v>
+        <v>12.73</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.52</v>
+        <v>4.32</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.14</v>
+        <v>4.36</v>
       </c>
       <c r="DV12" t="n">
-        <v>8.33</v>
+        <v>11.73</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.67</v>
+        <v>2.55</v>
       </c>
       <c r="DX12" t="n">
         <v>0.05</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="EC12" t="n">
-        <v>335.62</v>
+        <v>329.82</v>
       </c>
       <c r="ED12" t="n">
-        <v>14.52</v>
+        <v>15.86</v>
       </c>
       <c r="EE12" t="n">
-        <v>7.67</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="EF12" t="n">
-        <v>30.1</v>
+        <v>29.55</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.24</v>
+        <v>2.59</v>
       </c>
       <c r="EH12" t="n">
-        <v>48.38</v>
+        <v>50</v>
       </c>
       <c r="EI12" t="n">
-        <v>29.14</v>
+        <v>34.23</v>
       </c>
       <c r="EJ12" t="n">
-        <v>19.24</v>
+        <v>15.77</v>
       </c>
       <c r="EK12" t="n">
-        <v>129</v>
+        <v>139.59</v>
       </c>
       <c r="EL12" t="n">
-        <v>4.9</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2527</v>
+        <v>2671</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -5959,211 +5959,211 @@
         <v>22</v>
       </c>
       <c r="E13" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
+        <v>291</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9</v>
+      </c>
+      <c r="N13" t="n">
         <v>25</v>
       </c>
-      <c r="F13" t="n">
-        <v>34</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>16</v>
-      </c>
-      <c r="I13" t="n">
-        <v>227</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>23</v>
-      </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="Q13" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="R13" t="n">
         <v>6</v>
       </c>
       <c r="S13" t="n">
+        <v>7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>17</v>
+      </c>
+      <c r="U13" t="n">
+        <v>55</v>
+      </c>
+      <c r="V13" t="n">
+        <v>45</v>
+      </c>
+      <c r="W13" t="n">
+        <v>37</v>
+      </c>
+      <c r="X13" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>115</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>244</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AD13" t="n">
         <v>5</v>
       </c>
-      <c r="T13" t="n">
-        <v>12</v>
-      </c>
-      <c r="U13" t="n">
-        <v>39</v>
-      </c>
-      <c r="V13" t="n">
-        <v>25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>19</v>
-      </c>
-      <c r="X13" t="n">
-        <v>87</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>53</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>107</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>258</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>89</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
-        <v>44.666666666667</v>
+        <v>47.272727272727</v>
       </c>
       <c r="AI13" t="n">
-        <v>9155</v>
+        <v>9040</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7533</v>
+        <v>7307</v>
       </c>
       <c r="AK13" t="n">
-        <v>82.282905516111</v>
+        <v>80.82964601769901</v>
       </c>
       <c r="AL13" t="n">
-        <v>4941</v>
+        <v>4408</v>
       </c>
       <c r="AM13" t="n">
-        <v>4400</v>
+        <v>3976</v>
       </c>
       <c r="AN13" t="n">
-        <v>89.050799433313</v>
+        <v>90.199637023593</v>
       </c>
       <c r="AO13" t="n">
-        <v>4214</v>
+        <v>4632</v>
       </c>
       <c r="AP13" t="n">
-        <v>3133</v>
+        <v>3331</v>
       </c>
       <c r="AQ13" t="n">
-        <v>74.347413383958</v>
+        <v>71.91278065630399</v>
       </c>
       <c r="AR13" t="n">
-        <v>669</v>
+        <v>702</v>
       </c>
       <c r="AS13" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AT13" t="n">
-        <v>43.497757847534</v>
+        <v>42.450142450142</v>
       </c>
       <c r="AU13" t="n">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="AV13" t="n">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="AW13" t="n">
-        <v>22.670807453416</v>
+        <v>27.570093457944</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="AZ13" t="n">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="BA13" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="BB13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
       </c>
       <c r="BD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BE13" t="n">
         <v>3</v>
       </c>
       <c r="BF13" t="n">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="BG13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI13" t="n">
-        <v>1992</v>
+        <v>2060</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1014</v>
+        <v>1059</v>
       </c>
       <c r="BK13" t="n">
-        <v>50.903614457831</v>
+        <v>51.407766990291</v>
       </c>
       <c r="BL13" t="n">
-        <v>1387</v>
+        <v>1256</v>
       </c>
       <c r="BM13" t="n">
-        <v>699</v>
+        <v>635</v>
       </c>
       <c r="BN13" t="n">
-        <v>50.396539293439</v>
+        <v>50.557324840764</v>
       </c>
       <c r="BO13" t="n">
-        <v>605</v>
+        <v>804</v>
       </c>
       <c r="BP13" t="n">
-        <v>315</v>
+        <v>424</v>
       </c>
       <c r="BQ13" t="n">
-        <v>52.066115702479</v>
+        <v>52.73631840796</v>
       </c>
       <c r="BR13" t="n">
-        <v>2644</v>
+        <v>2847</v>
       </c>
       <c r="BS13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BT13" t="n">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="BU13" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="BV13" t="n">
         <v>0</v>
@@ -6172,130 +6172,130 @@
         <v>1</v>
       </c>
       <c r="BX13" t="n">
-        <v>6.7721362229102</v>
+        <v>6.8109195402299</v>
       </c>
       <c r="BY13" t="n">
-        <v>2503</v>
+        <v>2017</v>
       </c>
       <c r="BZ13" t="n">
-        <v>5288</v>
+        <v>4106</v>
       </c>
       <c r="CA13" t="n">
-        <v>4684</v>
+        <v>4313</v>
       </c>
       <c r="CB13" t="n">
-        <v>9972</v>
+        <v>8419</v>
       </c>
       <c r="CC13" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="CD13" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="CE13" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="CF13" t="n">
-        <v>501</v>
+        <v>655</v>
       </c>
       <c r="CG13" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="CH13" t="n">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="CI13" t="n">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="CJ13" t="n">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="CK13" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="CL13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM13" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN13" t="n">
         <v>6</v>
       </c>
-      <c r="CN13" t="n">
-        <v>12</v>
-      </c>
       <c r="CO13" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="CP13" t="n">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="CQ13" t="n">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="CR13" t="n">
-        <v>974</v>
+        <v>1111</v>
       </c>
       <c r="CS13" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU13" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CV13" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="CW13" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="CX13" t="n">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="CY13" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="CZ13" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="DA13" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="DB13" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="DC13" t="n">
-        <v>3348</v>
+        <v>2910</v>
       </c>
       <c r="DD13" t="n">
-        <v>6498</v>
+        <v>5419</v>
       </c>
       <c r="DE13" t="n">
-        <v>5057</v>
+        <v>4700</v>
       </c>
       <c r="DF13" t="n">
-        <v>11555</v>
+        <v>10119</v>
       </c>
       <c r="DG13" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="DH13" t="n">
-        <v>364</v>
+        <v>435</v>
       </c>
       <c r="DI13" t="n">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1007</v>
+        <v>935</v>
       </c>
       <c r="DK13" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="DL13" t="n">
-        <v>49292</v>
+        <v>49205</v>
       </c>
       <c r="DM13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN13" t="n">
         <v>0</v>
@@ -6311,80 +6311,80 @@
         </is>
       </c>
       <c r="DQ13" t="n">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="DR13" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="DS13" t="n">
-        <v>10.32</v>
+        <v>13.23</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.95</v>
+        <v>4.45</v>
       </c>
       <c r="DU13" t="n">
-        <v>4.05</v>
+        <v>4.18</v>
       </c>
       <c r="DV13" t="n">
-        <v>10.86</v>
+        <v>8.41</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="DX13" t="n">
         <v>0.05</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.86</v>
+        <v>1.68</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="EC13" t="n">
-        <v>342.41</v>
+        <v>332.14</v>
       </c>
       <c r="ED13" t="n">
-        <v>17.18</v>
+        <v>14.36</v>
       </c>
       <c r="EE13" t="n">
-        <v>9.09</v>
+        <v>7.77</v>
       </c>
       <c r="EF13" t="n">
-        <v>31.05</v>
+        <v>29.95</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="EH13" t="n">
-        <v>46.09</v>
+        <v>48.14</v>
       </c>
       <c r="EI13" t="n">
-        <v>31.77</v>
+        <v>28.86</v>
       </c>
       <c r="EJ13" t="n">
-        <v>14.32</v>
+        <v>19.27</v>
       </c>
       <c r="EK13" t="n">
-        <v>120.18</v>
+        <v>129.41</v>
       </c>
       <c r="EL13" t="n">
-        <v>4.86</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FC Augsburg</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2600</v>
+        <v>2527</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -6392,346 +6392,346 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>23</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>164</v>
       </c>
       <c r="Q14" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="R14" t="n">
         <v>6</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="V14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y14" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Z14" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB14" t="n">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="AC14" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>45.181818181818</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9618</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7949</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>82.647119983365</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>5152</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>89.28571428571399</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4466</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>3349</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>74.988804299149</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>693</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>310</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>44.733044733045</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>346</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>77</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>22.254335260116</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>389</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>206</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>698</v>
+      </c>
+      <c r="BG14" t="n">
         <v>1</v>
       </c>
-      <c r="AG14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>45.809523809524</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8660</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>6897</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>79.642032332564</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>4025</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>3572</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>88.74534161490701</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>4635</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>3325</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>71.73678532901801</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>717</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>324</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>45.188284518828</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>380</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>87</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>22.894736842105</v>
-      </c>
-      <c r="AX14" t="n">
+      <c r="BH14" t="n">
         <v>3</v>
       </c>
-      <c r="AY14" t="n">
-        <v>335</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>179</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>623</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>5</v>
-      </c>
       <c r="BI14" t="n">
-        <v>2130</v>
+        <v>2083</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="BK14" t="n">
-        <v>49.389671361502</v>
+        <v>50.69611137782</v>
       </c>
       <c r="BL14" t="n">
-        <v>1437</v>
+        <v>1455</v>
       </c>
       <c r="BM14" t="n">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="BN14" t="n">
-        <v>50.243562978427</v>
+        <v>50.103092783505</v>
       </c>
       <c r="BO14" t="n">
-        <v>693</v>
+        <v>628</v>
       </c>
       <c r="BP14" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BQ14" t="n">
-        <v>47.619047619048</v>
+        <v>52.070063694268</v>
       </c>
       <c r="BR14" t="n">
-        <v>2925</v>
+        <v>2754</v>
       </c>
       <c r="BS14" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="BT14" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BU14" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="BV14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
         <v>1</v>
       </c>
       <c r="BX14" t="n">
-        <v>6.7509202453988</v>
+        <v>6.7639053254438</v>
       </c>
       <c r="BY14" t="n">
-        <v>1922</v>
+        <v>2538</v>
       </c>
       <c r="BZ14" t="n">
-        <v>4039</v>
+        <v>5377</v>
       </c>
       <c r="CA14" t="n">
-        <v>4635</v>
+        <v>4919</v>
       </c>
       <c r="CB14" t="n">
-        <v>8674</v>
+        <v>10296</v>
       </c>
       <c r="CC14" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="CD14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CE14" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="CF14" t="n">
-        <v>594</v>
+        <v>532</v>
       </c>
       <c r="CG14" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="CH14" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="CI14" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="CJ14" t="n">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="CK14" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="CL14" t="n">
         <v>5</v>
       </c>
       <c r="CM14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CN14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CO14" t="n">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="CP14" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="CQ14" t="n">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="CR14" t="n">
-        <v>1149</v>
+        <v>1015</v>
       </c>
       <c r="CS14" t="n">
         <v>43</v>
       </c>
       <c r="CT14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="CV14" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="CW14" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="CX14" t="n">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="CY14" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="CZ14" t="n">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="DA14" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="DB14" t="n">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="DC14" t="n">
-        <v>2811</v>
+        <v>3404</v>
       </c>
       <c r="DD14" t="n">
-        <v>5414</v>
+        <v>6621</v>
       </c>
       <c r="DE14" t="n">
-        <v>5092</v>
+        <v>5313</v>
       </c>
       <c r="DF14" t="n">
-        <v>10506</v>
+        <v>11934</v>
       </c>
       <c r="DG14" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="DH14" t="n">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="DI14" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1012</v>
+        <v>1048</v>
       </c>
       <c r="DK14" t="n">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="DL14" t="n">
-        <v>49001</v>
+        <v>49292</v>
       </c>
       <c r="DM14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN14" t="n">
         <v>0</v>
@@ -6750,67 +6750,67 @@
         <v>1.14</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="DS14" t="n">
-        <v>12.76</v>
+        <v>11.23</v>
       </c>
       <c r="DT14" t="n">
-        <v>4.33</v>
+        <v>4.09</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.38</v>
+        <v>4.41</v>
       </c>
       <c r="DV14" t="n">
-        <v>11.86</v>
+        <v>11.36</v>
       </c>
       <c r="DW14" t="n">
-        <v>2.62</v>
+        <v>1.32</v>
       </c>
       <c r="DX14" t="n">
         <v>0.05</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="EC14" t="n">
-        <v>328.43</v>
+        <v>361.32</v>
       </c>
       <c r="ED14" t="n">
-        <v>15.95</v>
+        <v>17.68</v>
       </c>
       <c r="EE14" t="n">
-        <v>8.52</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="EF14" t="n">
-        <v>29.67</v>
+        <v>31.73</v>
       </c>
       <c r="EG14" t="n">
-        <v>2.62</v>
+        <v>3.91</v>
       </c>
       <c r="EH14" t="n">
-        <v>50.1</v>
+        <v>48</v>
       </c>
       <c r="EI14" t="n">
-        <v>34.38</v>
+        <v>33.14</v>
       </c>
       <c r="EJ14" t="n">
-        <v>15.71</v>
+        <v>14.86</v>
       </c>
       <c r="EK14" t="n">
-        <v>139.29</v>
+        <v>125.18</v>
       </c>
       <c r="EL14" t="n">
-        <v>6.67</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="15">
@@ -7264,22 +7264,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I16" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -7294,130 +7294,130 @@
         <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O16" t="n">
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q16" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="R16" t="n">
         <v>6</v>
       </c>
       <c r="S16" t="n">
+        <v>13</v>
+      </c>
+      <c r="T16" t="n">
         <v>12</v>
       </c>
-      <c r="T16" t="n">
-        <v>11</v>
-      </c>
       <c r="U16" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W16" t="n">
         <v>30</v>
       </c>
       <c r="X16" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA16" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AB16" t="n">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AC16" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="n">
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>46.904761904762</v>
+        <v>46.227272727273</v>
       </c>
       <c r="AI16" t="n">
-        <v>8820</v>
+        <v>9148</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7058</v>
+        <v>7312</v>
       </c>
       <c r="AK16" t="n">
-        <v>80.02267573696101</v>
+        <v>79.930039352864</v>
       </c>
       <c r="AL16" t="n">
-        <v>4614</v>
+        <v>4788</v>
       </c>
       <c r="AM16" t="n">
-        <v>4107</v>
+        <v>4251</v>
       </c>
       <c r="AN16" t="n">
-        <v>89.011703511053</v>
+        <v>88.784461152882</v>
       </c>
       <c r="AO16" t="n">
-        <v>4206</v>
+        <v>4360</v>
       </c>
       <c r="AP16" t="n">
-        <v>2951</v>
+        <v>3061</v>
       </c>
       <c r="AQ16" t="n">
-        <v>70.161673799334</v>
+        <v>70.206422018349</v>
       </c>
       <c r="AR16" t="n">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="AS16" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AT16" t="n">
-        <v>42.99634591961</v>
+        <v>42.63839811543</v>
       </c>
       <c r="AU16" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AV16" t="n">
         <v>89</v>
       </c>
       <c r="AW16" t="n">
-        <v>28.709677419355</v>
+        <v>28.164556962025</v>
       </c>
       <c r="AX16" t="n">
         <v>1</v>
       </c>
       <c r="AY16" t="n">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="AZ16" t="n">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BB16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD16" t="n">
         <v>8</v>
@@ -7426,52 +7426,52 @@
         <v>4</v>
       </c>
       <c r="BF16" t="n">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="BG16" t="n">
         <v>3</v>
       </c>
       <c r="BH16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI16" t="n">
-        <v>1980</v>
+        <v>2068</v>
       </c>
       <c r="BJ16" t="n">
-        <v>954</v>
+        <v>990</v>
       </c>
       <c r="BK16" t="n">
-        <v>48.181818181818</v>
+        <v>47.872340425532</v>
       </c>
       <c r="BL16" t="n">
-        <v>1292</v>
+        <v>1361</v>
       </c>
       <c r="BM16" t="n">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="BN16" t="n">
-        <v>47.910216718266</v>
+        <v>47.538574577517</v>
       </c>
       <c r="BO16" t="n">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="BP16" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="BQ16" t="n">
-        <v>48.691860465116</v>
+        <v>48.514851485149</v>
       </c>
       <c r="BR16" t="n">
-        <v>2694</v>
+        <v>2809</v>
       </c>
       <c r="BS16" t="n">
         <v>26</v>
       </c>
       <c r="BT16" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BU16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BV16" t="n">
         <v>1</v>
@@ -7480,46 +7480,46 @@
         <v>1</v>
       </c>
       <c r="BX16" t="n">
-        <v>6.7295238095238</v>
+        <v>6.7331306990881</v>
       </c>
       <c r="BY16" t="n">
-        <v>2122</v>
+        <v>2329</v>
       </c>
       <c r="BZ16" t="n">
-        <v>4174</v>
+        <v>4570</v>
       </c>
       <c r="CA16" t="n">
-        <v>4045</v>
+        <v>4254</v>
       </c>
       <c r="CB16" t="n">
-        <v>8219</v>
+        <v>8824</v>
       </c>
       <c r="CC16" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="CD16" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CE16" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CF16" t="n">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="CG16" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="CH16" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="CI16" t="n">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="CJ16" t="n">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="CK16" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="CL16" t="n">
         <v>4</v>
@@ -7531,16 +7531,16 @@
         <v>12</v>
       </c>
       <c r="CO16" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="CP16" t="n">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="CQ16" t="n">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="CR16" t="n">
-        <v>1172</v>
+        <v>1218</v>
       </c>
       <c r="CS16" t="n">
         <v>45</v>
@@ -7549,61 +7549,61 @@
         <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="CV16" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="CW16" t="n">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="CX16" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="CY16" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="CZ16" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="DA16" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="DB16" t="n">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="DC16" t="n">
-        <v>2934</v>
+        <v>3196</v>
       </c>
       <c r="DD16" t="n">
-        <v>5429</v>
+        <v>5900</v>
       </c>
       <c r="DE16" t="n">
-        <v>4488</v>
+        <v>4709</v>
       </c>
       <c r="DF16" t="n">
-        <v>9917</v>
+        <v>10609</v>
       </c>
       <c r="DG16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DH16" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="DI16" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="DJ16" t="n">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="DK16" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="DL16" t="n">
         <v>48991</v>
       </c>
       <c r="DM16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN16" t="n">
         <v>0</v>
@@ -7619,22 +7619,22 @@
         </is>
       </c>
       <c r="DQ16" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="DR16" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="DS16" t="n">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
       <c r="DT16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="DU16" t="n">
-        <v>3.81</v>
+        <v>3.73</v>
       </c>
       <c r="DV16" t="n">
-        <v>11.29</v>
+        <v>11.23</v>
       </c>
       <c r="DW16" t="n">
         <v>1.95</v>
@@ -7643,46 +7643,46 @@
         <v>0.05</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="EC16" t="n">
-        <v>336.1</v>
+        <v>332.36</v>
       </c>
       <c r="ED16" t="n">
-        <v>15.52</v>
+        <v>15.73</v>
       </c>
       <c r="EE16" t="n">
         <v>9</v>
       </c>
       <c r="EF16" t="n">
-        <v>35.76</v>
+        <v>36.55</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="EH16" t="n">
-        <v>45.43</v>
+        <v>45</v>
       </c>
       <c r="EI16" t="n">
-        <v>29.48</v>
+        <v>29.41</v>
       </c>
       <c r="EJ16" t="n">
-        <v>15.95</v>
+        <v>15.59</v>
       </c>
       <c r="EK16" t="n">
-        <v>128.29</v>
+        <v>127.68</v>
       </c>
       <c r="EL16" t="n">
-        <v>4.86</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="17">
@@ -7706,7 +7706,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -7715,7 +7715,7 @@
         <v>17</v>
       </c>
       <c r="I17" t="n">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -7736,10 +7736,10 @@
         <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q17" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R17" t="n">
         <v>3</v>
@@ -7760,109 +7760,109 @@
         <v>19</v>
       </c>
       <c r="X17" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y17" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Z17" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA17" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AB17" t="n">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="AC17" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH17" t="n">
-        <v>51.571428571429</v>
+        <v>50.818181818182</v>
       </c>
       <c r="AI17" t="n">
-        <v>10148</v>
+        <v>10535</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8371</v>
+        <v>8667</v>
       </c>
       <c r="AK17" t="n">
-        <v>82.48916042570001</v>
+        <v>82.268628381585</v>
       </c>
       <c r="AL17" t="n">
-        <v>5100</v>
+        <v>5313</v>
       </c>
       <c r="AM17" t="n">
-        <v>4545</v>
+        <v>4719</v>
       </c>
       <c r="AN17" t="n">
-        <v>89.11764705882401</v>
+        <v>88.81987577639801</v>
       </c>
       <c r="AO17" t="n">
-        <v>5048</v>
+        <v>5222</v>
       </c>
       <c r="AP17" t="n">
-        <v>3826</v>
+        <v>3948</v>
       </c>
       <c r="AQ17" t="n">
-        <v>75.792393026941</v>
+        <v>75.603217158177</v>
       </c>
       <c r="AR17" t="n">
-        <v>939</v>
+        <v>976</v>
       </c>
       <c r="AS17" t="n">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="AT17" t="n">
-        <v>47.497337593184</v>
+        <v>47.131147540984</v>
       </c>
       <c r="AU17" t="n">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AV17" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AW17" t="n">
-        <v>24.427480916031</v>
+        <v>24.565756823821</v>
       </c>
       <c r="AX17" t="n">
         <v>4</v>
       </c>
       <c r="AY17" t="n">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="AZ17" t="n">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="BA17" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF17" t="n">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="BG17" t="n">
         <v>6</v>
@@ -7871,43 +7871,43 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>1891</v>
+        <v>1984</v>
       </c>
       <c r="BJ17" t="n">
-        <v>964</v>
+        <v>1018</v>
       </c>
       <c r="BK17" t="n">
-        <v>50.978318350079</v>
+        <v>51.310483870968</v>
       </c>
       <c r="BL17" t="n">
-        <v>1345</v>
+        <v>1426</v>
       </c>
       <c r="BM17" t="n">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="BN17" t="n">
-        <v>50.408921933086</v>
+        <v>50.631136044881</v>
       </c>
       <c r="BO17" t="n">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="BP17" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="BQ17" t="n">
-        <v>52.380952380952</v>
+        <v>53.046594982079</v>
       </c>
       <c r="BR17" t="n">
-        <v>2833</v>
+        <v>2971</v>
       </c>
       <c r="BS17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BT17" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="BU17" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BV17" t="n">
         <v>3</v>
@@ -7916,46 +7916,46 @@
         <v>3</v>
       </c>
       <c r="BX17" t="n">
-        <v>6.7504761904762</v>
+        <v>6.7413897280967</v>
       </c>
       <c r="BY17" t="n">
-        <v>2026</v>
+        <v>2174</v>
       </c>
       <c r="BZ17" t="n">
-        <v>4086</v>
+        <v>4441</v>
       </c>
       <c r="CA17" t="n">
-        <v>3933</v>
+        <v>4214</v>
       </c>
       <c r="CB17" t="n">
-        <v>8019</v>
+        <v>8655</v>
       </c>
       <c r="CC17" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="CD17" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CE17" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CF17" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="CG17" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="CH17" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="CI17" t="n">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="CJ17" t="n">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="CK17" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="CL17" t="n">
         <v>2</v>
@@ -7967,79 +7967,79 @@
         <v>9</v>
       </c>
       <c r="CO17" t="n">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="CP17" t="n">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="CQ17" t="n">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="CR17" t="n">
-        <v>1080</v>
+        <v>1122</v>
       </c>
       <c r="CS17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CT17" t="n">
         <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="CV17" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CW17" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="CX17" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="CY17" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CZ17" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="DA17" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="DB17" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="DC17" t="n">
-        <v>2852</v>
+        <v>3045</v>
       </c>
       <c r="DD17" t="n">
-        <v>5356</v>
+        <v>5768</v>
       </c>
       <c r="DE17" t="n">
-        <v>4340</v>
+        <v>4645</v>
       </c>
       <c r="DF17" t="n">
-        <v>9696</v>
+        <v>10413</v>
       </c>
       <c r="DG17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DH17" t="n">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="DI17" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="DJ17" t="n">
-        <v>1011</v>
+        <v>1076</v>
       </c>
       <c r="DK17" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="DL17" t="n">
         <v>48993</v>
       </c>
       <c r="DM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>1</v>
       </c>
       <c r="DR17" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="DS17" t="n">
-        <v>12.77</v>
+        <v>13.41</v>
       </c>
       <c r="DT17" t="n">
-        <v>4</v>
+        <v>4.14</v>
       </c>
       <c r="DU17" t="n">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
       <c r="DV17" t="n">
-        <v>9.59</v>
+        <v>10.05</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="DX17" t="n">
         <v>0.14</v>
@@ -8085,40 +8085,40 @@
         <v>0.86</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="EB17" t="n">
         <v>0.09</v>
       </c>
       <c r="EC17" t="n">
-        <v>380.5</v>
+        <v>393.95</v>
       </c>
       <c r="ED17" t="n">
-        <v>16</v>
+        <v>17.41</v>
       </c>
       <c r="EE17" t="n">
-        <v>8.949999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="EF17" t="n">
-        <v>27.18</v>
+        <v>28.41</v>
       </c>
       <c r="EG17" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="EH17" t="n">
-        <v>43.82</v>
+        <v>46.27</v>
       </c>
       <c r="EI17" t="n">
-        <v>30.82</v>
+        <v>32.82</v>
       </c>
       <c r="EJ17" t="n">
-        <v>13</v>
+        <v>13.45</v>
       </c>
       <c r="EK17" t="n">
-        <v>128.77</v>
+        <v>135.05</v>
       </c>
       <c r="EL17" t="n">
-        <v>6.05</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="18">
@@ -8142,7 +8142,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>13</v>
       </c>
       <c r="I18" t="n">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -8163,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
         <v>18</v>
@@ -8172,10 +8172,10 @@
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q18" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
@@ -8187,31 +8187,31 @@
         <v>11</v>
       </c>
       <c r="U18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X18" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AB18" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AC18" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AD18" t="n">
         <v>3</v>
@@ -8226,70 +8226,70 @@
         <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>45.952380952381</v>
+        <v>45.318181818182</v>
       </c>
       <c r="AI18" t="n">
-        <v>9404</v>
+        <v>9787</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7417</v>
+        <v>7719</v>
       </c>
       <c r="AK18" t="n">
-        <v>78.870693321991</v>
+        <v>78.86992949831399</v>
       </c>
       <c r="AL18" t="n">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="AM18" t="n">
-        <v>3927</v>
+        <v>4097</v>
       </c>
       <c r="AN18" t="n">
-        <v>89.25</v>
+        <v>89.065217391304</v>
       </c>
       <c r="AO18" t="n">
-        <v>5004</v>
+        <v>5187</v>
       </c>
       <c r="AP18" t="n">
-        <v>3490</v>
+        <v>3622</v>
       </c>
       <c r="AQ18" t="n">
-        <v>69.744204636291</v>
+        <v>69.828417196838</v>
       </c>
       <c r="AR18" t="n">
-        <v>893</v>
+        <v>926</v>
       </c>
       <c r="AS18" t="n">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AT18" t="n">
-        <v>37.066069428891</v>
+        <v>37.041036717063</v>
       </c>
       <c r="AU18" t="n">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="AV18" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AW18" t="n">
-        <v>16.272965879265</v>
+        <v>16.624685138539</v>
       </c>
       <c r="AX18" t="n">
         <v>3</v>
       </c>
       <c r="AY18" t="n">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="AZ18" t="n">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="BA18" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB18" t="n">
         <v>5</v>
       </c>
       <c r="BC18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD18" t="n">
         <v>4</v>
@@ -8298,7 +8298,7 @@
         <v>2</v>
       </c>
       <c r="BF18" t="n">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="BG18" t="n">
         <v>2</v>
@@ -8307,43 +8307,43 @@
         <v>4</v>
       </c>
       <c r="BI18" t="n">
-        <v>1964</v>
+        <v>2028</v>
       </c>
       <c r="BJ18" t="n">
-        <v>953</v>
+        <v>987</v>
       </c>
       <c r="BK18" t="n">
-        <v>48.523421588595</v>
+        <v>48.668639053254</v>
       </c>
       <c r="BL18" t="n">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="BM18" t="n">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="BN18" t="n">
-        <v>52.012882447665</v>
+        <v>52.167182662539</v>
       </c>
       <c r="BO18" t="n">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="BP18" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="BQ18" t="n">
-        <v>42.520775623269</v>
+        <v>42.527173913043</v>
       </c>
       <c r="BR18" t="n">
-        <v>2977</v>
+        <v>3096</v>
       </c>
       <c r="BS18" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BT18" t="n">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BU18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BV18" t="n">
         <v>0</v>
@@ -8352,46 +8352,46 @@
         <v>1</v>
       </c>
       <c r="BX18" t="n">
-        <v>6.6967426710098</v>
+        <v>6.6788819875776</v>
       </c>
       <c r="BY18" t="n">
-        <v>1664</v>
+        <v>1817</v>
       </c>
       <c r="BZ18" t="n">
-        <v>4324</v>
+        <v>4721</v>
       </c>
       <c r="CA18" t="n">
-        <v>5295</v>
+        <v>5652</v>
       </c>
       <c r="CB18" t="n">
-        <v>9619</v>
+        <v>10373</v>
       </c>
       <c r="CC18" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="CD18" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="CE18" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CF18" t="n">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="CG18" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="CH18" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="CI18" t="n">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="CJ18" t="n">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="CK18" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="CL18" t="n">
         <v>5</v>
@@ -8403,79 +8403,79 @@
         <v>10</v>
       </c>
       <c r="CO18" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CP18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="CQ18" t="n">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="CR18" t="n">
-        <v>1171</v>
+        <v>1223</v>
       </c>
       <c r="CS18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CT18" t="n">
         <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="CV18" t="n">
         <v>62</v>
       </c>
       <c r="CW18" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="CX18" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="CY18" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="CZ18" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="DA18" t="n">
         <v>62</v>
       </c>
       <c r="DB18" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="DC18" t="n">
-        <v>2509</v>
+        <v>2704</v>
       </c>
       <c r="DD18" t="n">
-        <v>5670</v>
+        <v>6136</v>
       </c>
       <c r="DE18" t="n">
-        <v>5716</v>
+        <v>6096</v>
       </c>
       <c r="DF18" t="n">
-        <v>11386</v>
+        <v>12232</v>
       </c>
       <c r="DG18" t="n">
         <v>39</v>
       </c>
       <c r="DH18" t="n">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="DI18" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="DJ18" t="n">
-        <v>1022</v>
+        <v>1064</v>
       </c>
       <c r="DK18" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="DL18" t="n">
         <v>49073</v>
       </c>
       <c r="DM18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -8494,31 +8494,31 @@
         <v>0.91</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="DS18" t="n">
-        <v>10.14</v>
+        <v>10.64</v>
       </c>
       <c r="DT18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="DU18" t="n">
-        <v>4.73</v>
+        <v>4.86</v>
       </c>
       <c r="DV18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="DW18" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="DX18" t="n">
         <v>0.05</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="EA18" t="n">
         <v>0.14</v>
@@ -8527,34 +8527,34 @@
         <v>0.18</v>
       </c>
       <c r="EC18" t="n">
-        <v>337.14</v>
+        <v>350.86</v>
       </c>
       <c r="ED18" t="n">
-        <v>16.09</v>
+        <v>16.95</v>
       </c>
       <c r="EE18" t="n">
-        <v>8.73</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="EF18" t="n">
-        <v>24.45</v>
+        <v>25.68</v>
       </c>
       <c r="EG18" t="n">
-        <v>3.27</v>
+        <v>3.41</v>
       </c>
       <c r="EH18" t="n">
-        <v>43.32</v>
+        <v>44.86</v>
       </c>
       <c r="EI18" t="n">
-        <v>29.36</v>
+        <v>30.64</v>
       </c>
       <c r="EJ18" t="n">
-        <v>13.95</v>
+        <v>14.23</v>
       </c>
       <c r="EK18" t="n">
-        <v>135.32</v>
+        <v>140.73</v>
       </c>
       <c r="EL18" t="n">
-        <v>4.45</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="19">
@@ -8572,13 +8572,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q19" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="R19" t="n">
         <v>2</v>
@@ -8632,109 +8632,109 @@
         <v>38</v>
       </c>
       <c r="X19" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Z19" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AA19" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AB19" t="n">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="AC19" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD19" t="n">
         <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>3</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>41.904761904762</v>
+        <v>42.318181818182</v>
       </c>
       <c r="AI19" t="n">
-        <v>7645</v>
+        <v>8115</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5881</v>
+        <v>6266</v>
       </c>
       <c r="AK19" t="n">
-        <v>76.926095487247</v>
+        <v>77.21503388786201</v>
       </c>
       <c r="AL19" t="n">
-        <v>3789</v>
+        <v>4024</v>
       </c>
       <c r="AM19" t="n">
-        <v>3374</v>
+        <v>3595</v>
       </c>
       <c r="AN19" t="n">
-        <v>89.047242016363</v>
+        <v>89.338966202783</v>
       </c>
       <c r="AO19" t="n">
-        <v>3856</v>
+        <v>4091</v>
       </c>
       <c r="AP19" t="n">
-        <v>2507</v>
+        <v>2671</v>
       </c>
       <c r="AQ19" t="n">
-        <v>65.015560165975</v>
+        <v>65.28966022977301</v>
       </c>
       <c r="AR19" t="n">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="AS19" t="n">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="AT19" t="n">
-        <v>45.516304347826</v>
+        <v>45.773732119636</v>
       </c>
       <c r="AU19" t="n">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="AV19" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AW19" t="n">
-        <v>24.861878453039</v>
+        <v>23.947368421053</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AZ19" t="n">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="BA19" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BB19" t="n">
         <v>6</v>
       </c>
       <c r="BC19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE19" t="n">
         <v>4</v>
       </c>
-      <c r="BE19" t="n">
-        <v>3</v>
-      </c>
       <c r="BF19" t="n">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="BG19" t="n">
         <v>4</v>
@@ -8743,43 +8743,43 @@
         <v>3</v>
       </c>
       <c r="BI19" t="n">
-        <v>1999</v>
+        <v>2095</v>
       </c>
       <c r="BJ19" t="n">
-        <v>975</v>
+        <v>1023</v>
       </c>
       <c r="BK19" t="n">
-        <v>48.774387193597</v>
+        <v>48.830548926014</v>
       </c>
       <c r="BL19" t="n">
-        <v>1283</v>
+        <v>1339</v>
       </c>
       <c r="BM19" t="n">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="BN19" t="n">
-        <v>49.805144193297</v>
+        <v>49.589245705751</v>
       </c>
       <c r="BO19" t="n">
-        <v>716</v>
+        <v>756</v>
       </c>
       <c r="BP19" t="n">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="BQ19" t="n">
-        <v>46.927374301676</v>
+        <v>47.486772486772</v>
       </c>
       <c r="BR19" t="n">
-        <v>2740</v>
+        <v>2877</v>
       </c>
       <c r="BS19" t="n">
         <v>41</v>
       </c>
       <c r="BT19" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="BU19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BV19" t="n">
         <v>0</v>
@@ -8788,67 +8788,67 @@
         <v>1</v>
       </c>
       <c r="BX19" t="n">
-        <v>6.6543806646526</v>
+        <v>6.6582132564841</v>
       </c>
       <c r="BY19" t="n">
-        <v>2516</v>
+        <v>2597</v>
       </c>
       <c r="BZ19" t="n">
-        <v>5271</v>
+        <v>5437</v>
       </c>
       <c r="CA19" t="n">
-        <v>4122</v>
+        <v>4315</v>
       </c>
       <c r="CB19" t="n">
-        <v>9393</v>
+        <v>9752</v>
       </c>
       <c r="CC19" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CD19" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CE19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CF19" t="n">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="CG19" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="CH19" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="CI19" t="n">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="CJ19" t="n">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="CK19" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="CL19" t="n">
         <v>3</v>
       </c>
       <c r="CM19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CN19" t="n">
         <v>9</v>
       </c>
       <c r="CO19" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="CP19" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="CQ19" t="n">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="CR19" t="n">
-        <v>1081</v>
+        <v>1134</v>
       </c>
       <c r="CS19" t="n">
         <v>22</v>
@@ -8857,61 +8857,61 @@
         <v>1</v>
       </c>
       <c r="CU19" t="n">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="CV19" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CW19" t="n">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="CX19" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="CY19" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="CZ19" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="DA19" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="DB19" t="n">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="DC19" t="n">
-        <v>3424</v>
+        <v>3553</v>
       </c>
       <c r="DD19" t="n">
-        <v>6626</v>
+        <v>6866</v>
       </c>
       <c r="DE19" t="n">
-        <v>4465</v>
+        <v>4684</v>
       </c>
       <c r="DF19" t="n">
-        <v>11091</v>
+        <v>11550</v>
       </c>
       <c r="DG19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="DH19" t="n">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="DI19" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="DJ19" t="n">
-        <v>1008</v>
+        <v>1066</v>
       </c>
       <c r="DK19" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="DL19" t="n">
         <v>48990</v>
       </c>
       <c r="DM19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN19" t="n">
         <v>0</v>
@@ -8927,70 +8927,70 @@
         </is>
       </c>
       <c r="DQ19" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="DR19" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="DS19" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="DT19" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="DU19" t="n">
-        <v>4.9</v>
+        <v>4.91</v>
       </c>
       <c r="DV19" t="n">
-        <v>10.43</v>
+        <v>10.36</v>
       </c>
       <c r="DW19" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="DX19" t="n">
         <v>0.05</v>
       </c>
       <c r="DY19" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="DZ19" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="EB19" t="n">
         <v>0</v>
       </c>
       <c r="EC19" t="n">
-        <v>280.05</v>
+        <v>284.82</v>
       </c>
       <c r="ED19" t="n">
-        <v>15.29</v>
+        <v>15.14</v>
       </c>
       <c r="EE19" t="n">
-        <v>8.949999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="EF19" t="n">
-        <v>32.81</v>
+        <v>32.82</v>
       </c>
       <c r="EG19" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="EH19" t="n">
-        <v>46.43</v>
+        <v>46.5</v>
       </c>
       <c r="EI19" t="n">
-        <v>30.43</v>
+        <v>30.18</v>
       </c>
       <c r="EJ19" t="n">
-        <v>16</v>
+        <v>16.32</v>
       </c>
       <c r="EK19" t="n">
-        <v>130.48</v>
+        <v>130.77</v>
       </c>
       <c r="EL19" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
     </row>
   </sheetData>

--- a/sofascore_team_data/Bundesliga_Team_Stats.xlsx
+++ b/sofascore_team_data/Bundesliga_Team_Stats.xlsx
@@ -1313,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>2</v>
@@ -4699,13 +4699,13 @@
         <v>12</v>
       </c>
       <c r="U10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X10" t="n">
         <v>101</v>
@@ -5027,10 +5027,10 @@
         <v>0.29</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="EA10" t="n">
         <v>0.43</v>
@@ -5315,13 +5315,13 @@
         <v>9664</v>
       </c>
       <c r="CC11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CD11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CE11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CF11" t="n">
         <v>751</v>
@@ -7961,7 +7961,7 @@
         <v>2</v>
       </c>
       <c r="CM17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CN17" t="n">
         <v>9</v>

--- a/sofascore_team_data/Bundesliga_Team_Stats.xlsx
+++ b/sofascore_team_data/Bundesliga_Team_Stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL19"/>
+  <dimension ref="A1:DP19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,116 +1034,6 @@
           <t>statisticsType_statisticsType</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>goalsScored_per_90</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>goalsConceded_per_90</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>shots_per_90</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>shotsOnTarget_per_90</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>corners_per_90</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>fouls_per_90</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>yellowCards_per_90</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>redCards_per_90</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>bigChances_per_90</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>bigChancesMissed_per_90</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>hitWoodwork_per_90</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>penaltyGoals_per_90</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>accuratePasses_per_90</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>tackles_per_90</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>interceptions_per_90</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>clearances_per_90</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>saves_per_90</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>duelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>groundDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>aerialDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>possessionLost_per_90</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>successfulDribbles_per_90</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1514,72 +1404,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>639.05</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>8</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>121.68</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>9.27</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1950,72 +1774,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>423.41</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>14</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>31.86</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>133.64</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>8.27</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2386,72 +2144,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>3</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>373.73</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>16</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>50</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>142.18</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>5.68</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2822,72 +2514,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>15</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>439.14</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>3</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>129.73</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>5.86</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3258,72 +2884,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>435.73</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>50.14</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>36.68</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>133.36</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>11.59</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3694,72 +3254,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>560.67</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>43.67</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>117.33</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>7.19</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4130,72 +3624,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ8" t="n">
-        <v>2</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>11</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>403</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>32.09</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>135</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>6.36</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4566,72 +3994,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>4</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>2</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>331.86</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>27.77</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>3</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>129.68</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>5.73</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5002,72 +4364,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>339.38</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>49.76</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>123.14</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>7.48</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5438,72 +4734,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>30.32</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>52.68</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>144.77</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>4.64</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5874,72 +5104,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>329.82</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>29.55</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>50</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>139.59</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>6.73</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6310,72 +5474,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>332.14</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>48.14</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>129.41</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>4.77</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6746,72 +5844,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>361.32</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>31.73</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>48</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>125.18</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>5.23</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7182,72 +6214,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>279.68</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>33</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>52.32</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>151.68</v>
-      </c>
-      <c r="EL15" t="n">
-        <v>5.64</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7618,72 +6584,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>332.36</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>9</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>45</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>127.68</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>4.73</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8054,72 +6954,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>393.95</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>46.27</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>32.82</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>135.05</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>6.41</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8490,72 +7324,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ18" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>350.86</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>44.86</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>30.64</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>140.73</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>4.68</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8925,72 +7693,6 @@
         <is>
           <t>team</t>
         </is>
-      </c>
-      <c r="DQ19" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>12</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>284.82</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>32.82</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>30.18</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>130.77</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>5.41</v>
       </c>
     </row>
   </sheetData>
